--- a/tests/fixtures/migrate/fully_instantiated_wc_lang_model.xlsx
+++ b/tests/fixtures/migrate/fully_instantiated_wc_lang_model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6840" firstSheet="15" activeTab="21"/>
+    <workbookView windowWidth="28695" windowHeight="13965" firstSheet="15" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -9530,7 +9530,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>experimental_evidence</t>
+    <t>experimental_observation</t>
   </si>
   <si>
     <t>Mycoplasma genitalium</t>
@@ -9575,7 +9575,7 @@
     <t>evidence 002</t>
   </si>
   <si>
-    <t>computational_evidence</t>
+    <t>computational_observation</t>
   </si>
   <si>
     <t>Mycoplasma pneumoniae</t>
@@ -9584,7 +9584,7 @@
     <t>Evidence 003</t>
   </si>
   <si>
-    <t>theoretical_evidence</t>
+    <t>theoretical_observation</t>
   </si>
   <si>
     <t>Escherichia coli</t>
@@ -10124,11 +10124,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10151,12 +10151,75 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -10166,7 +10229,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10179,39 +10242,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10232,70 +10271,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10316,7 +10309,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10328,13 +10345,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10346,31 +10399,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10382,109 +10471,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10513,23 +10506,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10545,6 +10532,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10566,192 +10579,172 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11218,9 +11211,6 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="B10" errorStyle="warning">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Time units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;second&quot; or blank." promptTitle="Time units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;second&quot; or blank." sqref="B8" errorStyle="warning">
-      <formula1>"second"</formula1>
-    </dataValidation>
     <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Updated" error="Value must be a date and time." promptTitle="Updated" prompt="Enter a date and time." sqref="B12" errorStyle="warning">
       <formula1>0</formula1>
       <formula2>-328717</formula2>
@@ -11243,6 +11233,9 @@
     </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2" errorStyle="warning">
       <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Time units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;second&quot; or blank." promptTitle="Time units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;second&quot; or blank." sqref="B8" errorStyle="warning">
+      <formula1>"second"</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="between" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." sqref="B1" errorStyle="warning">
       <formula1>1</formula1>
@@ -16578,21 +16571,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." sqref="O2:O176" errorStyle="warning">
       <formula1/>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="N2:N176" errorStyle="warning"/>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="M2:M176" errorStyle="warning">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Flux min" error="Value must be a float or blank." promptTitle="Flux min" prompt="Enter a float or blank." sqref="G2:G176" errorStyle="warning">
-      <formula1>-1E+100</formula1>
-      <formula2>1E+100</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Flux max" error="Value must be a float or blank." promptTitle="Flux max" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="H2:H176" errorStyle="warning">
-      <formula1>-1E-100</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="N2:N176" errorStyle="warning"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Rate units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Rate units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." sqref="F2:F176" errorStyle="warning">
-      <formula1>"1 / second"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a comma-separated list of values from &quot;Evidence:A&quot; or blank." promptTitle="Evidence" prompt="Enter a comma-separated list of values from &quot;Evidence:A&quot; or blank." sqref="K2:K176" errorStyle="warning"/>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B176" errorStyle="warning">
       <formula1>255</formula1>
     </dataValidation>
@@ -16602,10 +16584,21 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Flux bound units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molar / second&quot; or blank." promptTitle="Flux bound units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molar / second&quot; or blank." sqref="I2:I176" errorStyle="warning">
       <formula1>"molar / second"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Participants" error="Value must be a reaction string using species from &quot;Species:A&quot;.&#10;&#10;Examples:&#10;* [c]: atp + h2o ==&gt; adp + pi + h&#10;* glc[e] + atp[c] + h2o[c] ==&gt; glc[e] + adp[c] + pi[c] + h[c]&#10;* (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]" promptTitle="Participants" prompt="Enter a reaction string using species from &quot;Species:A&quot;.&#10;&#10;Examples:&#10;* [c]: atp + h2o ==&gt; adp + pi + h&#10;* glc[e] + atp[c] + h2o[c] ==&gt; glc[e] + adp[c] + pi[c] + h[c]&#10;* (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]" sqref="D2:D176" errorStyle="warning"/>
+    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Flux min" error="Value must be a float or blank." promptTitle="Flux min" prompt="Enter a float or blank." sqref="G2:G176" errorStyle="warning">
+      <formula1>-1E+100</formula1>
+      <formula2>1E+100</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Flux max" error="Value must be a float or blank." promptTitle="Flux max" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="H2:H176" errorStyle="warning">
+      <formula1>-1E-100</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Submodel" error="Value must be a value from &quot;Submodels:A&quot; or blank." promptTitle="Submodel" prompt="Select a value from &quot;Submodels:A&quot; or blank." sqref="C2:C176" errorStyle="warning">
       <formula1>Submodels!$A$2:$A$1048576</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Rate units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Rate units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." sqref="F2:F176" errorStyle="warning">
+      <formula1>"1 / second"</formula1>
+    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Participants" error="Value must be a reaction string using species from &quot;Species:A&quot;.&#10;&#10;Examples:&#10;* [c]: atp + h2o ==&gt; adp + pi + h&#10;* glc[e] + atp[c] + h2o[c] ==&gt; glc[e] + adp[c] + pi[c] + h[c]&#10;* (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]" promptTitle="Participants" prompt="Enter a reaction string using species from &quot;Species:A&quot;.&#10;&#10;Examples:&#10;* [c]: atp + h2o ==&gt; adp + pi + h&#10;* glc[e] + atp[c] + h2o[c] ==&gt; glc[e] + adp[c] + pi[c] + h[c]&#10;* (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]" sqref="D2:D176" errorStyle="warning"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a comma-separated list of values from &quot;Evidence:A&quot; or blank." promptTitle="Evidence" prompt="Enter a comma-separated list of values from &quot;Evidence:A&quot; or blank." sqref="K2:K176" errorStyle="warning"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Interpretations" error="Value must be a comma-separated list of values from &quot;Interpretations:A&quot; or blank." promptTitle="Interpretations" prompt="Enter a comma-separated list of values from &quot;Interpretations:A&quot; or blank." sqref="L2:L176" errorStyle="warning"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Database references" error="Value must be a comma-separated list of references to external databases.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Database references" prompt="Enter a comma-separated list of references to external databases.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="J2:J176" errorStyle="warning"/>
     <dataValidation type="textLength" operator="between" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." sqref="A2:A176" errorStyle="warning">
@@ -20865,8 +20858,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." sqref="M2:M168" errorStyle="warning">
       <formula1/>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="L2:L168" errorStyle="warning"/>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A2:A168" errorStyle="warning">
       <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Direction" error="Value must be one of &quot;backward&quot;, &quot;forward&quot;." promptTitle="Direction" prompt="Select one of &quot;backward&quot;, &quot;forward&quot;." sqref="D2:D168" errorStyle="warning">
+      <formula1>"backward,forward"</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="K2:K168" errorStyle="warning">
       <formula1>4294967295</formula1>
@@ -20874,16 +20871,12 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Interpretations" error="Value must be a comma-separated list of values from &quot;Interpretations:A&quot; or blank." promptTitle="Interpretations" prompt="Enter a comma-separated list of values from &quot;Interpretations:A&quot; or blank." sqref="J2:J168" errorStyle="warning"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Database references" error="Value must be a comma-separated list of references to external databases.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Database references" prompt="Enter a comma-separated list of references to external databases.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="H2:H168" errorStyle="warning"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a comma-separated list of values from &quot;Evidence:A&quot; or blank." promptTitle="Evidence" prompt="Enter a comma-separated list of values from &quot;Evidence:A&quot; or blank." sqref="I2:I168" errorStyle="warning"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="F2:F168" errorStyle="warning"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." sqref="G2:G168" errorStyle="warning">
       <formula1>"1 / second"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="F2:F168" errorStyle="warning"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="L2:L168" errorStyle="warning"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WCM ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WCM ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." sqref="E2:E168" errorStyle="warning">
       <formula1>"Michaelis_Menten_rate_law,hill_rate_law,mass_action_rate_law,modular_rate_law"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Direction" error="Value must be one of &quot;backward&quot;, &quot;forward&quot;." promptTitle="Direction" prompt="Select one of &quot;backward&quot;, &quot;forward&quot;." sqref="D2:D168" errorStyle="warning">
-      <formula1>"backward,forward"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reaction" error="Value must be a value from &quot;Reactions:A&quot; or blank." promptTitle="Reaction" prompt="Select a value from &quot;Reactions:A&quot; or blank." sqref="C2:C168" errorStyle="warning">
       <formula1>Reactions!$A$2:$A$1048576</formula1>
@@ -20998,11 +20991,11 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A2" errorStyle="warning">
       <formula1>255</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Coefficient units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;second&quot; or blank." promptTitle="Coefficient units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;second&quot; or blank." sqref="G2" errorStyle="warning">
+      <formula1>"second"</formula1>
+    </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="K2" errorStyle="warning">
       <formula1>4294967295</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Coefficient units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;second&quot; or blank." promptTitle="Coefficient units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;second&quot; or blank." sqref="G2" errorStyle="warning">
-      <formula1>"second"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reaction rate units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Reaction rate units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." sqref="F2" errorStyle="warning">
       <formula1>"1 / second"</formula1>
@@ -21140,18 +21133,18 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="I2:I3" errorStyle="warning">
       <formula1>4294967295</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Cell size units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;liter&quot;, &quot;gDCW&quot; or blank." promptTitle="Cell size units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;liter&quot;, &quot;gDCW&quot; or blank." sqref="E2:E3" errorStyle="warning">
+      <formula1>"liter,gDCW"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Submodel" error="Value must be a value from &quot;Submodels:A&quot; or blank." promptTitle="Submodel" prompt="Select a value from &quot;Submodels:A&quot; or blank." sqref="C2:C3" errorStyle="warning">
       <formula1>Submodels!$A$2:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Cell size units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;liter&quot;, &quot;gDCW&quot; or blank." promptTitle="Cell size units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;liter&quot;, &quot;gDCW&quot; or blank." sqref="E2:E3" errorStyle="warning">
-      <formula1>"liter,gDCW"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." sqref="D2:D3" errorStyle="warning">
+      <formula1>"1 / second"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a comma-separated list of values from &quot;Evidence:A&quot; or blank." promptTitle="Evidence" prompt="Enter a comma-separated list of values from &quot;Evidence:A&quot; or blank." sqref="G2:G3" errorStyle="warning"/>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3" errorStyle="warning">
       <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." sqref="D2:D3" errorStyle="warning">
-      <formula1>"1 / second"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Interpretations" error="Value must be a comma-separated list of values from &quot;Interpretations:A&quot; or blank." promptTitle="Interpretations" prompt="Enter a comma-separated list of values from &quot;Interpretations:A&quot; or blank." sqref="H2:H3" errorStyle="warning"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Database references" error="Value must be a comma-separated list of references to external databases.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Database references" prompt="Enter a comma-separated list of references to external databases.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="F2:F3" errorStyle="warning"/>
@@ -22141,9 +22134,6 @@
     <extLst/>
   </autoFilter>
   <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." sqref="L2:L36" errorStyle="warning">
-      <formula1/>
-    </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A2:A36" errorStyle="warning">
       <formula1>255</formula1>
     </dataValidation>
@@ -22160,15 +22150,18 @@
       <formula1>-1E+100</formula1>
       <formula2>1E+100</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molar / second&quot;, &quot;mole / gDCW / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molar / second&quot;, &quot;mole / gDCW / second&quot; or blank." sqref="F2:F36" errorStyle="warning">
-      <formula1>"molar / second,mole / gDCW / second"</formula1>
-    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="dFBA objective reaction" error="Value must be a value from &quot;dFBA objective reactions:A&quot;." promptTitle="dFBA objective reaction" prompt="Select a value from &quot;dFBA objective reactions:A&quot;." sqref="C2:C36" errorStyle="warning">
       <formula1>'dFBA objective reactions'!$A$2:$A$1048576</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a comma-separated list of values from &quot;Evidence:A&quot; or blank." promptTitle="Evidence" prompt="Enter a comma-separated list of values from &quot;Evidence:A&quot; or blank." sqref="H2:H36" errorStyle="warning"/>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B36" errorStyle="warning">
       <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." sqref="L2:L36" errorStyle="warning">
+      <formula1/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molar / second&quot;, &quot;mole / gDCW / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molar / second&quot;, &quot;mole / gDCW / second&quot; or blank." sqref="F2:F36" errorStyle="warning">
+      <formula1>"molar / second,mole / gDCW / second"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24611,15 +24604,15 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="H2:H3" errorStyle="warning">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;dimensionless&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;dimensionless&quot; or blank." sqref="D2:D3" errorStyle="warning">
-      <formula1>"dimensionless"</formula1>
-    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Interpretations" error="Value must be a comma-separated list of values from &quot;Interpretations:A&quot; or blank." promptTitle="Interpretations" prompt="Enter a comma-separated list of values from &quot;Interpretations:A&quot; or blank." sqref="G2:G3" errorStyle="warning"/>
     <dataValidation type="textLength" operator="between" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." sqref="A2:A3" errorStyle="warning">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Database references" error="Value must be a comma-separated list of references to external databases.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Database references" prompt="Enter a comma-separated list of references to external databases.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="E2:E3" errorStyle="warning"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;dimensionless&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;dimensionless&quot; or blank." sqref="D2:D3" errorStyle="warning">
+      <formula1>"dimensionless"</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="C2:C3" errorStyle="warning"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a comma-separated list of values from &quot;Evidence:A&quot; or blank." promptTitle="Evidence" prompt="Enter a comma-separated list of values from &quot;Evidence:A&quot; or blank." sqref="F2:F3" errorStyle="warning"/>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3" errorStyle="warning">
@@ -24637,10 +24630,10 @@
   <sheetPr/>
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
@@ -25030,9 +25023,6 @@
     <extLst/>
   </autoFilter>
   <dataValidations count="23">
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="U2:U9" errorStyle="warning">
-      <formula1>4294967295</formula1>
-    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Database references" error="Value must be a comma-separated list of references to external databases.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Database references" prompt="Enter a comma-separated list of references to external databases.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="S2:S9" errorStyle="warning"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="V2:V9" errorStyle="warning"/>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Measurement method" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Measurement method" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="Q2:Q9" errorStyle="warning">
@@ -25053,16 +25043,28 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Growth media" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Growth media" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="M2:M9" errorStyle="warning">
       <formula1>4294967295</formula1>
     </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="U2:U9" errorStyle="warning">
+      <formula1>4294967295</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="pH units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;dimensionless&quot; or blank." promptTitle="pH units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;dimensionless&quot; or blank." sqref="L2:L9" errorStyle="warning">
+      <formula1>"dimensionless"</formula1>
+    </dataValidation>
     <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="pH" error="Value must be a float or blank." promptTitle="pH" prompt="Enter a float or blank." sqref="K2:K9" errorStyle="warning">
       <formula1>-1E+100</formula1>
       <formula2>1E+100</formula2>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WCM ontology terms &quot;computational_evidence&quot;, &quot;experimental_evidence&quot;, &quot;theoretical_evidence&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WCM ontology terms &quot;computational_evidence&quot;, &quot;experimental_evidence&quot;, &quot;theoretical_evidence&quot; or blank." sqref="F2 F3 F4 F5 F6:F9" errorStyle="warning">
+      <formula1>"computational_evidence,experimental_evidence,theoretical_evidence"</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Taxon" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Taxon" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G2:G9" errorStyle="warning">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Temperature units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;degC&quot; or blank." promptTitle="Temperature units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;degC&quot; or blank." sqref="J2:J9" errorStyle="warning">
+      <formula1>"degC"</formula1>
+    </dataValidation>
     <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Temperature" error="Value must be a float or blank." promptTitle="Temperature" prompt="Enter a float or blank." sqref="I2:I9" errorStyle="warning">
       <formula1>-1E+100</formula1>
       <formula2>1E+100</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Temperature units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;degC&quot; or blank." promptTitle="Temperature units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;degC&quot; or blank." sqref="J2:J9" errorStyle="warning">
-      <formula1>"degC"</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Analysis method" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Analysis method" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="R2:R9" errorStyle="warning">
       <formula1>4294967295</formula1>
@@ -25073,20 +25075,11 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Genetic variant" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Genetic variant" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H2:H9" errorStyle="warning">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Taxon" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Taxon" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G2:G9" errorStyle="warning">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WCM ontology terms &quot;computational_evidence&quot;, &quot;experimental_evidence&quot;, &quot;theoretical_evidence&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WCM ontology terms &quot;computational_evidence&quot;, &quot;experimental_evidence&quot;, &quot;theoretical_evidence&quot; or blank." sqref="F2:F9" errorStyle="warning">
-      <formula1>"computational_evidence,experimental_evidence,theoretical_evidence"</formula1>
-    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." sqref="E2:E9" errorStyle="warning"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a comma-separated list of values from &quot;Evidence:A&quot; or blank." promptTitle="Evidence" prompt="Enter a comma-separated list of values from &quot;Evidence:A&quot; or blank." sqref="T2:T9" errorStyle="warning"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="pH units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;dimensionless&quot; or blank." promptTitle="pH units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;dimensionless&quot; or blank." sqref="L2:L9" errorStyle="warning">
-      <formula1>"dimensionless"</formula1>
-    </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard error" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Standard error" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D2:D9" errorStyle="warning">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." sqref="E2:E9" errorStyle="warning"/>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B9" errorStyle="warning">
       <formula1>255</formula1>
     </dataValidation>
@@ -25226,7 +25219,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." sqref="M2:M3" errorStyle="warning">
       <formula1/>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Authors" error="Value must be a comma-separated list of values from &quot;Authors:A&quot; or blank." promptTitle="Authors" prompt="Enter a comma-separated list of values from &quot;Authors:A&quot; or blank." sqref="L2:L3" errorStyle="warning"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="K2:K3" errorStyle="warning"/>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="J2:J3" errorStyle="warning">
       <formula1>4294967295</formula1>
@@ -25237,6 +25229,7 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Method" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Method" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="G2:G3" errorStyle="warning">
       <formula1>4294967295</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Authors" error="Value must be a comma-separated list of values from &quot;Authors:A&quot; or blank." promptTitle="Authors" prompt="Enter a comma-separated list of values from &quot;Authors:A&quot; or blank." sqref="L2:L3" errorStyle="warning"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WCM ontology terms &quot;approximation&quot;, &quot;assumption&quot;, &quot;computation&quot;, &quot;decision&quot;, &quot;coarse_graining&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WCM ontology terms &quot;approximation&quot;, &quot;assumption&quot;, &quot;computation&quot;, &quot;decision&quot;, &quot;coarse_graining&quot; or blank." sqref="F2:F3" errorStyle="warning">
       <formula1>"approximation,assumption,computation,decision,coarse_graining"</formula1>
     </dataValidation>
@@ -25333,15 +25326,15 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="B6" errorStyle="warning"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be unique." sqref="B1" errorStyle="warning"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Rank" error="Value must be one of &quot;domain&quot;, &quot;kingdom&quot;, &quot;phylum&quot;, &quot;classis&quot;, &quot;order&quot;, &quot;family&quot;, &quot;tribe&quot;, &quot;genus&quot;, &quot;species&quot;, &quot;variety&quot;." promptTitle="Rank" prompt="Select one of &quot;domain&quot;, &quot;kingdom&quot;, &quot;phylum&quot;, &quot;classis&quot;, &quot;order&quot;, &quot;family&quot;, &quot;tribe&quot;, &quot;genus&quot;, &quot;species&quot;, &quot;variety&quot;." sqref="B3" errorStyle="warning">
-      <formula1>"domain,kingdom,phylum,classis,order,family,tribe,genus,species,variety"</formula1>
-    </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="B5" errorStyle="warning">
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Database references" error="Value must be a comma-separated list of references to external databases.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Database references" prompt="Enter a comma-separated list of references to external databases.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="B4" errorStyle="warning"/>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2" errorStyle="warning">
       <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Rank" error="Value must be one of &quot;domain&quot;, &quot;kingdom&quot;, &quot;phylum&quot;, &quot;classis&quot;, &quot;order&quot;, &quot;family&quot;, &quot;tribe&quot;, &quot;genus&quot;, &quot;species&quot;, &quot;variety&quot;." promptTitle="Rank" prompt="Select one of &quot;domain&quot;, &quot;kingdom&quot;, &quot;phylum&quot;, &quot;classis&quot;, &quot;order&quot;, &quot;family&quot;, &quot;tribe&quot;, &quot;genus&quot;, &quot;species&quot;, &quot;variety&quot;." sqref="B3" errorStyle="warning">
+      <formula1>"domain,kingdom,phylum,classis,order,family,tribe,genus,species,variety"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26255,6 +26248,9 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Publication" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Publication" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H2:H22" errorStyle="warning">
       <formula1>255</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WCM ontology terms &quot;article&quot;, &quot;book&quot;, &quot;proceedings&quot;, &quot;thesis&quot;, &quot;website&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WCM ontology terms &quot;article&quot;, &quot;book&quot;, &quot;proceedings&quot;, &quot;thesis&quot;, &quot;website&quot; or blank." sqref="G2:G22" errorStyle="warning">
+      <formula1>"article,book,proceedings,thesis,website"</formula1>
+    </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Pages" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Pages" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="P2:P22" errorStyle="warning">
       <formula1>255</formula1>
     </dataValidation>
@@ -26278,9 +26274,6 @@
     </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Volume" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Volume" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="K2:K22" errorStyle="warning">
       <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WCM ontology terms &quot;article&quot;, &quot;book&quot;, &quot;proceedings&quot;, &quot;thesis&quot;, &quot;website&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WCM ontology terms &quot;article&quot;, &quot;book&quot;, &quot;proceedings&quot;, &quot;thesis&quot;, &quot;website&quot; or blank." sqref="G2:G22" errorStyle="warning">
-      <formula1>"article,book,proceedings,thesis,website"</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B22" errorStyle="warning">
       <formula1>255</formula1>
@@ -26417,7 +26410,7 @@
   <sheetPr/>
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
@@ -26499,33 +26492,21 @@
       <formula2>-328717</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="O1:O2" errorStyle="warning"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Authors" error="Value must be a comma-separated list of values from &quot;Authors:A&quot; or blank." promptTitle="Authors" prompt="Enter a comma-separated list of values from &quot;Authors:A&quot; or blank." sqref="P1:P2" errorStyle="warning"/>
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reason" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Reason" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="G1:G2" errorStyle="warning">
+      <formula1>4294967295</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a comma-separated list of values from &quot;Evidence:A&quot; or blank." promptTitle="Evidence" prompt="Enter a comma-separated list of values from &quot;Evidence:A&quot; or blank." sqref="L1:L2" errorStyle="warning"/>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Intention" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Intention" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="I1:I2" errorStyle="warning">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="between" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be between 1 and 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be between 1 and 255 characters." sqref="B1:B2" errorStyle="warning">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Interpretations" error="Value must be a comma-separated list of values from &quot;Interpretations:A&quot; or blank." promptTitle="Interpretations" prompt="Enter a comma-separated list of values from &quot;Interpretations:A&quot; or blank." sqref="M1:M2" errorStyle="warning"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Database references" error="Value must be a comma-separated list of references to external databases.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Database references" prompt="Enter a comma-separated list of references to external databases.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="K1:K2" errorStyle="warning"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Target type" error="Value must be a comma-separated list of WCM ontology terms &quot;data_target_provenance&quot;, &quot;encoding_target_provenance&quot;, &quot;metadata_target_provenance&quot;, &quot;model_target_provenance&quot;, &quot;model_dynamics_target_provenance&quot;, &quot;model_initial_conditions_target_provenance ..." promptTitle="Target type" prompt="Enter a comma-separated list of WCM ontology terms &quot;data_target_provenance&quot;, &quot;encoding_target_provenance&quot;, &quot;metadata_target_provenance&quot;, &quot;model_target_provenance&quot;, &quot;model_dynamics_target_provenance&quot;, &quot;model_initial_conditions_target_provenance&quot; or blank." sqref="F1:F2" errorStyle="warning">
+      <formula1>"data_target_provenance,encoding_target_provenance,metadata_target_provenance,model_target_provenance,model_dynamics_target_provenance,model_initial_conditions_target_provenance"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Intention type" error="Value must be a comma-separated list of WCM ontology terms &quot;correct_intention_provenance&quot;, &quot;elaborate_intention_provenance&quot;, &quot;expand_intention_provenance&quot;, &quot;simplify_intention_provenance&quot; or blank." promptTitle="Intention type" prompt="Enter a comma-separated list of WCM ontology terms &quot;correct_intention_provenance&quot;, &quot;elaborate_intention_provenance&quot;, &quot;expand_intention_provenance&quot;, &quot;simplify_intention_provenance&quot; or blank." sqref="J1:J2" errorStyle="warning">
       <formula1>"correct_intention_provenance,elaborate_intention_provenance,expand_intention_provenance,simplify_intention_provenance"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reason type" error="Value must be a comma-separated list of WCM ontology terms &quot;add_metadata_reason_provenance&quot;, &quot;implementation_error_reason_provenance&quot;, &quot;incorrect_interpretation_reason_provenance&quot;, &quot;migrate_version_reason_provenance&quot;, &quot;new_goal_reason_provenance&quot;, &quot;ne ..." promptTitle="Reason type" prompt="Enter a comma-separated list of WCM ontology terms &quot;add_metadata_reason_provenance&quot;, &quot;implementation_error_reason_provenance&quot;, &quot;incorrect_interpretation_reason_provenance&quot;, &quot;migrate_version_reason_provenance&quot;, &quot;new_goal_reason_provenance&quot;, &quot;new_knowle ..." sqref="H1:H2" errorStyle="warning">
-      <formula1>"add_metadata_reason_provenance,implementation_error_reason_provenance,incorrect_interpretation_reason_provenance,migrate_version_reason_provenance,new_goal_reason_provenance,new_knowledge_reason_provenance"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Authors" error="Value must be a comma-separated list of values from &quot;Authors:A&quot; or blank." promptTitle="Authors" prompt="Enter a comma-separated list of values from &quot;Authors:A&quot; or blank." sqref="P1:P2" errorStyle="warning"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WCM ontology terms &quot;copy_change_provenance&quot;, &quot;deletion_change_provenance&quot;, &quot;insertion_change_provenance&quot;, &quot;merge_change_provenance&quot;, &quot;move_change_provenance&quot;, &quot;revert_change_provenance&quot;, &quot;update_change_provenanc ..." promptTitle="Type" prompt="Enter a comma-separated list of WCM ontology terms &quot;copy_change_provenance&quot;, &quot;deletion_change_provenance&quot;, &quot;insertion_change_provenance&quot;, &quot;merge_change_provenance&quot;, &quot;move_change_provenance&quot;, &quot;revert_change_provenance&quot;, &quot;update_change_provenance&quot; or blank." sqref="C1:C2" errorStyle="warning">
-      <formula1>"copy_change_provenance,deletion_change_provenance,insertion_change_provenance,merge_change_provenance,move_change_provenance,revert_change_provenance,update_change_provenance"</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reason" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Reason" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="G1:G2" errorStyle="warning">
-      <formula1>4294967295</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="between" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." sqref="A1:A2" errorStyle="warning">
-      <formula1>1</formula1>
-      <formula2>63</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Target type" error="Value must be a comma-separated list of WCM ontology terms &quot;data_target_provenance&quot;, &quot;encoding_target_provenance&quot;, &quot;metadata_target_provenance&quot;, &quot;model_target_provenance&quot;, &quot;model_dynamics_target_provenance&quot;, &quot;model_initial_conditions_target_provenance ..." promptTitle="Target type" prompt="Enter a comma-separated list of WCM ontology terms &quot;data_target_provenance&quot;, &quot;encoding_target_provenance&quot;, &quot;metadata_target_provenance&quot;, &quot;model_target_provenance&quot;, &quot;model_dynamics_target_provenance&quot;, &quot;model_initial_conditions_target_provenance&quot; or blank." sqref="F1:F2" errorStyle="warning">
-      <formula1>"data_target_provenance,encoding_target_provenance,metadata_target_provenance,model_target_provenance,model_dynamics_target_provenance,model_initial_conditions_target_provenance"</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="N1:N2" errorStyle="warning">
       <formula1>4294967295</formula1>
@@ -26533,11 +26514,23 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Target" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Target" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="D1:D2" errorStyle="warning">
       <formula1>4294967295</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reason type" error="Value must be a comma-separated list of WCM ontology terms &quot;add_metadata_reason_provenance&quot;, &quot;implementation_error_reason_provenance&quot;, &quot;incorrect_interpretation_reason_provenance&quot;, &quot;migrate_version_reason_provenance&quot;, &quot;new_goal_reason_provenance&quot;, &quot;ne ..." promptTitle="Reason type" prompt="Enter a comma-separated list of WCM ontology terms &quot;add_metadata_reason_provenance&quot;, &quot;implementation_error_reason_provenance&quot;, &quot;incorrect_interpretation_reason_provenance&quot;, &quot;migrate_version_reason_provenance&quot;, &quot;new_goal_reason_provenance&quot;, &quot;new_knowle ..." sqref="H1:H2" errorStyle="warning">
+      <formula1>"add_metadata_reason_provenance,implementation_error_reason_provenance,incorrect_interpretation_reason_provenance,migrate_version_reason_provenance,new_goal_reason_provenance,new_knowledge_reason_provenance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WCM ontology terms &quot;copy_change_provenance&quot;, &quot;deletion_change_provenance&quot;, &quot;insertion_change_provenance&quot;, &quot;merge_change_provenance&quot;, &quot;move_change_provenance&quot;, &quot;revert_change_provenance&quot;, &quot;update_change_provenanc ..." promptTitle="Type" prompt="Enter a comma-separated list of WCM ontology terms &quot;copy_change_provenance&quot;, &quot;deletion_change_provenance&quot;, &quot;insertion_change_provenance&quot;, &quot;merge_change_provenance&quot;, &quot;move_change_provenance&quot;, &quot;revert_change_provenance&quot;, &quot;update_change_provenance&quot; or blank." sqref="C1:C2" errorStyle="warning">
+      <formula1>"copy_change_provenance,deletion_change_provenance,insertion_change_provenance,merge_change_provenance,move_change_provenance,revert_change_provenance,update_change_provenance"</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="between" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be between 1 and 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be between 1 and 255 characters." sqref="B1:B2" errorStyle="warning">
+      <formula1>1</formula1>
+      <formula2>255</formula2>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Target submodel" error="Value must be a value from &quot;Submodels:A&quot; or blank." promptTitle="Target submodel" prompt="Select a value from &quot;Submodels:A&quot; or blank." sqref="E1:E2" errorStyle="warning">
       <formula1>Submodels!$A$2:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Interpretations" error="Value must be a comma-separated list of values from &quot;Interpretations:A&quot; or blank." promptTitle="Interpretations" prompt="Enter a comma-separated list of values from &quot;Interpretations:A&quot; or blank." sqref="M1:M2" errorStyle="warning"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Database references" error="Value must be a comma-separated list of references to external databases.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Database references" prompt="Enter a comma-separated list of references to external databases.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="K1:K2" errorStyle="warning"/>
+    <dataValidation type="textLength" operator="between" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." sqref="A1:A2" errorStyle="warning">
+      <formula1>1</formula1>
+      <formula2>63</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -26640,15 +26633,15 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="pH units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;dimensionless&quot; or blank." promptTitle="pH units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;dimensionless&quot; or blank." sqref="B6" errorStyle="warning">
       <formula1>"dimensionless"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Temperature units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;degC&quot; or blank." promptTitle="Temperature units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;degC&quot; or blank." sqref="B4" errorStyle="warning">
-      <formula1>"degC"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." sqref="B10" errorStyle="warning">
       <formula1/>
     </dataValidation>
     <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="pH" error="Value must be a float or blank." promptTitle="pH" prompt="Enter a float or blank." sqref="B5" errorStyle="warning">
       <formula1>-1E+100</formula1>
       <formula2>1E+100</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Temperature units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;degC&quot; or blank." promptTitle="Temperature units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;degC&quot; or blank." sqref="B4" errorStyle="warning">
+      <formula1>"degC"</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Temperature" error="Value must be a float or blank." promptTitle="Temperature" prompt="Enter a float or blank." sqref="B3" errorStyle="warning">
       <formula1>-1E+100</formula1>
@@ -26790,9 +26783,6 @@
     <extLst/>
   </autoFilter>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." sqref="I2:I5" errorStyle="warning">
-      <formula1/>
-    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="H2:H5" errorStyle="warning"/>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="G2:G5" errorStyle="warning">
       <formula1>4294967295</formula1>
@@ -26800,15 +26790,18 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B5" errorStyle="warning">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Framework" error="Value must be a comma-separated list of WCM ontology terms &quot;dynamic_flux_balance_analysis&quot;, &quot;ordinary_differential_equations&quot;, &quot;stochastic_simulation_algorithm&quot;." promptTitle="Framework" prompt="Enter a comma-separated list of WCM ontology terms &quot;dynamic_flux_balance_analysis&quot;, &quot;ordinary_differential_equations&quot;, &quot;stochastic_simulation_algorithm&quot;." sqref="C2:C5" errorStyle="warning">
-      <formula1>"dynamic_flux_balance_analysis,ordinary_differential_equations,stochastic_simulation_algorithm"</formula1>
-    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a comma-separated list of values from &quot;Evidence:A&quot; or blank." promptTitle="Evidence" prompt="Enter a comma-separated list of values from &quot;Evidence:A&quot; or blank." sqref="E2:E5" errorStyle="warning"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Interpretations" error="Value must be a comma-separated list of values from &quot;Interpretations:A&quot; or blank." promptTitle="Interpretations" prompt="Enter a comma-separated list of values from &quot;Interpretations:A&quot; or blank." sqref="F2:F5" errorStyle="warning"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Database references" error="Value must be a comma-separated list of references to external databases.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Database references" prompt="Enter a comma-separated list of references to external databases.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="D2:D5" errorStyle="warning"/>
     <dataValidation type="textLength" operator="between" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." sqref="A2:A5" errorStyle="warning">
       <formula1>1</formula1>
       <formula2>63</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Database references" error="Value must be a comma-separated list of references to external databases.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Database references" prompt="Enter a comma-separated list of references to external databases.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="D2:D5" errorStyle="warning"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." sqref="I2:I5" errorStyle="warning">
+      <formula1/>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Framework" error="Value must be a comma-separated list of WCM ontology terms &quot;dynamic_flux_balance_analysis&quot;, &quot;ordinary_differential_equations&quot;, &quot;stochastic_simulation_algorithm&quot;." promptTitle="Framework" prompt="Enter a comma-separated list of WCM ontology terms &quot;dynamic_flux_balance_analysis&quot;, &quot;ordinary_differential_equations&quot;, &quot;stochastic_simulation_algorithm&quot;." sqref="C2:C5" errorStyle="warning">
+      <formula1>"dynamic_flux_balance_analysis,ordinary_differential_equations,stochastic_simulation_algorithm"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26990,34 +26983,41 @@
     <extLst/>
   </autoFilter>
   <dataValidations count="18">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="Q2:Q3" errorStyle="warning"/>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="P2:P3" errorStyle="warning">
       <formula1>4294967295</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a comma-separated list of values from &quot;Evidence:A&quot; or blank." promptTitle="Evidence" prompt="Enter a comma-separated list of values from &quot;Evidence:A&quot; or blank." sqref="N2:N3" errorStyle="warning"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Interpretations" error="Value must be a comma-separated list of values from &quot;Interpretations:A&quot; or blank." promptTitle="Interpretations" prompt="Enter a comma-separated list of values from &quot;Interpretations:A&quot; or blank." sqref="O2:O3" errorStyle="warning"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Database references" error="Value must be a comma-separated list of references to external databases.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Database references" prompt="Enter a comma-separated list of references to external databases.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="M2:M3" errorStyle="warning"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Initial density" error="Value must be a value from &quot;Parameters:A&quot; or blank." promptTitle="Initial density" prompt="Select a value from &quot;Parameters:A&quot; or blank." sqref="L2:L3" errorStyle="warning">
+      <formula1>Parameters!$A$2:$A$1048576</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Initial volume units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;liter&quot; or blank." promptTitle="Initial volume units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;liter&quot; or blank." sqref="K2:K3" errorStyle="warning">
+      <formula1>"liter"</formula1>
+    </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Initial volume mean" error="Value must be a float or blank." promptTitle="Initial volume mean" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="I2:I3" errorStyle="warning">
       <formula1>-1E-100</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Initial volume distribution" error="Value must be a comma-separated list of WCM ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot; ..." promptTitle="Initial volume distribution" prompt="Enter a comma-separated list of WCM ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;Weibull_ ..." sqref="H2:H3" errorStyle="warning"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Parent compartment" error="Value must be a value from &quot;Compartments:A&quot; or blank." promptTitle="Parent compartment" prompt="Select a value from &quot;Compartments:A&quot; or blank." sqref="F2:F3" errorStyle="warning">
+      <formula1>Compartments!$A$2:$A$1048576</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mass units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;gram&quot; or blank." promptTitle="Mass units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;gram&quot; or blank." sqref="G2:G3" errorStyle="warning">
       <formula1>"gram"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Parent compartment" error="Value must be a value from &quot;Compartments:A&quot; or blank." promptTitle="Parent compartment" prompt="Select a value from &quot;Compartments:A&quot; or blank." sqref="F2:F3" errorStyle="warning">
-      <formula1>Compartments!$A$2:$A$1048576</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Initial density" error="Value must be a value from &quot;Parameters:A&quot; or blank." promptTitle="Initial density" prompt="Select a value from &quot;Parameters:A&quot; or blank." sqref="L2:L3" errorStyle="warning">
-      <formula1>Parameters!$A$2:$A$1048576</formula1>
+    <dataValidation type="textLength" operator="between" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." sqref="A2:A3" errorStyle="warning">
+      <formula1>1</formula1>
+      <formula2>63</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Geometry" error="Value must be a comma-separated list of WCM ontology terms &quot;3D_compartment&quot; or blank." promptTitle="Geometry" prompt="Enter a comma-separated list of WCM ontology terms &quot;3D_compartment&quot; or blank." sqref="E2:E3" errorStyle="warning">
       <formula1>"3D_compartment"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a comma-separated list of values from &quot;Evidence:A&quot; or blank." promptTitle="Evidence" prompt="Enter a comma-separated list of values from &quot;Evidence:A&quot; or blank." sqref="N2:N3" errorStyle="warning"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Initial volume units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;liter&quot; or blank." promptTitle="Initial volume units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;liter&quot; or blank." sqref="K2:K3" errorStyle="warning">
-      <formula1>"liter"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="Q2:Q3" errorStyle="warning"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Physical type" error="Value must be a comma-separated list of WCM ontology terms &quot;fluid_compartment&quot;, &quot;membrane_compartment&quot; or blank." promptTitle="Physical type" prompt="Enter a comma-separated list of WCM ontology terms &quot;fluid_compartment&quot;, &quot;membrane_compartment&quot; or blank." sqref="D2:D3" errorStyle="warning">
       <formula1>"fluid_compartment,membrane_compartment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Biological type" error="Value must be a comma-separated list of WCM ontology terms &quot;cellular_compartment&quot;, &quot;extracellular_compartment&quot; or blank." promptTitle="Biological type" prompt="Enter a comma-separated list of WCM ontology terms &quot;cellular_compartment&quot;, &quot;extracellular_compartment&quot; or blank." sqref="C2:C3" errorStyle="warning">
+      <formula1>"cellular_compartment,extracellular_compartment"</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3" errorStyle="warning">
       <formula1>255</formula1>
@@ -27027,13 +27027,6 @@
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Initial volume standard devi ..." error="Value must be a float or blank." promptTitle="Initial volume standard devi ..." prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="J2:J3" errorStyle="warning">
       <formula1>-1E-100</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Biological type" error="Value must be a comma-separated list of WCM ontology terms &quot;cellular_compartment&quot;, &quot;extracellular_compartment&quot; or blank." promptTitle="Biological type" prompt="Enter a comma-separated list of WCM ontology terms &quot;cellular_compartment&quot;, &quot;extracellular_compartment&quot; or blank." sqref="C2:C3" errorStyle="warning">
-      <formula1>"cellular_compartment,extracellular_compartment"</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="between" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." sqref="A2:A3" errorStyle="warning">
-      <formula1>1</formula1>
-      <formula2>63</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38466,15 +38459,15 @@
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Database references" error="Value must be a comma-separated list of references to external databases.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Database references" prompt="Enter a comma-separated list of references to external databases.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="E2:E5" errorStyle="warning"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a linear expression of Observables and Species." promptTitle="Expression" prompt="Enter a linear expression of Observables and Species." sqref="C2:C5" errorStyle="warning"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot; or blank." sqref="D2:D5" errorStyle="warning">
       <formula1>"molecule"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Database references" error="Value must be a comma-separated list of references to external databases.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Database references" prompt="Enter a comma-separated list of references to external databases.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="E2:E5" errorStyle="warning"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a comma-separated list of values from &quot;Evidence:A&quot; or blank." promptTitle="Evidence" prompt="Enter a comma-separated list of values from &quot;Evidence:A&quot; or blank." sqref="F2:F5" errorStyle="warning"/>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B5" errorStyle="warning">
       <formula1>255</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a linear expression of Observables and Species." promptTitle="Expression" prompt="Enter a linear expression of Observables and Species." sqref="C2:C5" errorStyle="warning"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/tests/fixtures/migrate/fully_instantiated_wc_lang_model.xlsx
+++ b/tests/fixtures/migrate/fully_instantiated_wc_lang_model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="953" activeTab="1"/>
+    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="953" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="!_Table of contents" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4693" uniqueCount="2048">
   <si>
-    <t>!!ObjTables TableType='TableOfContents'</t>
+    <t>!!ObjTables Type='TableOfContents'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -627,7 +627,7 @@
     <t>Changes</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='Model'</t>
+    <t>!!ObjTables Type='Date' Id='Model'</t>
   </si>
   <si>
     <t>!Id</t>
@@ -687,7 +687,7 @@
     <t>!Updated</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='Taxon'</t>
+    <t>!!ObjTables Type='Date' Id='Taxon'</t>
   </si>
   <si>
     <t>taxon</t>
@@ -708,7 +708,7 @@
     <t>!Model</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='Environment'</t>
+    <t>!!ObjTables Type='Date' Id='Environment'</t>
   </si>
   <si>
     <t>env</t>
@@ -723,7 +723,7 @@
     <t>degC</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='Submodel'</t>
+    <t>!!ObjTables Type='Date' Id='Submodel'</t>
   </si>
   <si>
     <t>!Framework</t>
@@ -759,7 +759,7 @@
     <t>Translation</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='Compartment'</t>
+    <t>!!ObjTables Type='Date' Id='Compartment'</t>
   </si>
   <si>
     <t>!Initial volume</t>
@@ -854,7 +854,7 @@
     <t>Ref_0002, Ref_0021</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='SpeciesType'</t>
+    <t>!!ObjTables Type='Date' Id='SpeciesType'</t>
   </si>
   <si>
     <t>!Structure</t>
@@ -1745,7 +1745,7 @@
     <t>D-Xylulose 5-phosphate</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='Species'</t>
+    <t>!!ObjTables Type='Date' Id='Species'</t>
   </si>
   <si>
     <t>!Species type</t>
@@ -2282,7 +2282,7 @@
     <t>X5P[c]</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='InitialSpeciesConcentration'</t>
+    <t>!!ObjTables Type='Date' Id='InitialSpeciesConcentration'</t>
   </si>
   <si>
     <t>!Species</t>
@@ -2666,7 +2666,7 @@
     <t>dist-init-conc-ValVal[e]</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='Observable'</t>
+    <t>!!ObjTables Type='Date' Id='Observable'</t>
   </si>
   <si>
     <t>!Expression</t>
@@ -2696,7 +2696,7 @@
     <t>ATP[c] + CTP[c] + GTP[c] + UTP[c]</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='Function'</t>
+    <t>!!ObjTables Type='Date' Id='Function'</t>
   </si>
   <si>
     <t>func_1</t>
@@ -2729,7 +2729,7 @@
     <t>e / density_e</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='Reaction'</t>
+    <t>!!ObjTables Type='Date' Id='Reaction'</t>
   </si>
   <si>
     <t>!Flux bounds</t>
@@ -4331,7 +4331,7 @@
     <t>ATP[c] + H2O[c] + ValVal[e] ==&gt; ADP[c] + H[c] + Pi[c] + ValVal[c]</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='RateLaw'</t>
+    <t>!!ObjTables Type='Date' Id='RateLaw'</t>
   </si>
   <si>
     <t>!Reaction</t>
@@ -5264,7 +5264,7 @@
     <t>k_cat_for_val_abc * PeptAbcTransporter_Protein[c]</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='DfbaObjective'</t>
+    <t>!!ObjTables Type='Date' Id='DfbaObjective'</t>
   </si>
   <si>
     <t>!Reaction rate units</t>
@@ -5279,7 +5279,7 @@
     <t>Metabolism_net_rxn + AdnTransport</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='DfbaObjReaction'</t>
+    <t>!!ObjTables Type='Date' Id='DfbaObjReaction'</t>
   </si>
   <si>
     <t>!Cell size units</t>
@@ -5303,7 +5303,7 @@
     <t>NA</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='DfbaObjSpecies'</t>
+    <t>!!ObjTables Type='Date' Id='DfbaObjSpecies'</t>
   </si>
   <si>
     <t>!dFBA objective reaction</t>
@@ -5522,7 +5522,7 @@
     <t>dfba-net-species-Other_net_rxn-UMP[c]</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='Parameter'</t>
+    <t>!!ObjTables Type='Date' Id='Parameter'</t>
   </si>
   <si>
     <t>!Standard error</t>
@@ -6005,7 +6005,7 @@
     <t>stop_cond_p_2</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='StopCondition'</t>
+    <t>!!ObjTables Type='Date' Id='StopCondition'</t>
   </si>
   <si>
     <t>stop_cond_1</t>
@@ -6020,7 +6020,7 @@
     <t>AXP_c + NTP_c &lt;= stop_cond_p_2</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='Observation'</t>
+    <t>!!ObjTables Type='Date' Id='Observation'</t>
   </si>
   <si>
     <t>!Genotype</t>
@@ -6143,7 +6143,7 @@
     <t>Homo sapiens</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='ObservationSet'</t>
+    <t>!!ObjTables Type='Date' Id='ObservationSet'</t>
   </si>
   <si>
     <t>!Observations</t>
@@ -6170,7 +6170,7 @@
     <t>observation set 003</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='Conclusion'</t>
+    <t>!!ObjTables Type='Date' Id='Conclusion'</t>
   </si>
   <si>
     <t>!Process</t>
@@ -6209,7 +6209,7 @@
     <t>observation_002(-); observation_003(+, s=10.0, q=30.0)</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='Reference'</t>
+    <t>!!ObjTables Type='Date' Id='Reference'</t>
   </si>
   <si>
     <t>!Title</t>
@@ -6644,7 +6644,7 @@
     <t>URL: https://water.usgs.gov/edu/density.html</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='Author'</t>
+    <t>!!ObjTables Type='Date' Id='Author'</t>
   </si>
   <si>
     <t>!Last name</t>
@@ -6668,7 +6668,7 @@
     <t>!Address</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='Change'</t>
+    <t>!!ObjTables Type='Date' Id='Change'</t>
   </si>
   <si>
     <t>!Target</t>
@@ -6699,8 +6699,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -6743,6 +6743,29 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -6752,15 +6775,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6773,47 +6803,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6824,20 +6816,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6856,6 +6834,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -6865,6 +6866,13 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -6872,16 +6880,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6914,7 +6914,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6926,7 +6926,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6938,7 +6974,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6950,25 +7058,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6980,55 +7082,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7040,61 +7094,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7105,24 +7105,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -7145,7 +7127,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7165,17 +7162,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7205,124 +7196,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7331,25 +7331,25 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8181,10 +8181,14 @@
       <formula1/>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="I3:I6" errorStyle="warning"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="G3:G6" errorStyle="warning"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="F3:F6" errorStyle="warning"/>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="H3:H6" errorStyle="warning">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="G3:G6" errorStyle="warning"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot; or blank." sqref="D3:D6" errorStyle="warning">
+      <formula1>"molecule"</formula1>
+    </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B6" errorStyle="warning">
       <formula1>255</formula1>
     </dataValidation>
@@ -8193,10 +8197,6 @@
       <formula2>63</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="E3:E6" errorStyle="warning"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="F3:F6" errorStyle="warning"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot; or blank." sqref="D3:D6" errorStyle="warning">
-      <formula1>"molecule"</formula1>
-    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a linear expression of Observables and Species." promptTitle="Expression" prompt="Enter a linear expression of Observables and Species." sqref="C3:C6" errorStyle="warning"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13574,11 +13574,13 @@
     <mergeCell ref="G2:I2"/>
   </mergeCells>
   <dataValidations count="15">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="L4:L178" errorStyle="warning"/>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="M4:M178" errorStyle="warning">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="L4:L178" errorStyle="warning"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="K4:K178" errorStyle="warning"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molar / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molar / second&quot; or blank." sqref="I4:I178" errorStyle="warning">
+      <formula1>"molar / second"</formula1>
+    </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Maximum" error="Value must be a float or blank." promptTitle="Maximum" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="H4:H178" errorStyle="warning">
       <formula1>-1E-100</formula1>
     </dataValidation>
@@ -13586,19 +13588,17 @@
       <formula1>-1E+100</formula1>
       <formula2>1E+100</formula2>
     </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Participants" error="Value must be a reaction string using species from &quot;Species:A&quot;.&#10;&#10;Examples:&#10;* [c]: atp + h2o ==&gt; adp + pi + h&#10;* glc[e] + atp[c] + h2o[c] ==&gt; glc[e] + adp[c] + pi[c] + h[c]&#10;* (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]" promptTitle="Participants" prompt="Enter a reaction string using species from &quot;Species:A&quot;.&#10;&#10;Examples:&#10;* [c]: atp + h2o ==&gt; adp + pi + h&#10;* glc[e] + atp[c] + h2o[c] ==&gt; glc[e] + adp[c] + pi[c] + h[c]&#10;* (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]" sqref="D4:D178" errorStyle="warning"/>
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B4:B178" errorStyle="warning">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="K4:K178" errorStyle="warning"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reversible" error="Enter a Boolean value&#10;&#10;Value must be &quot;True&quot; or &quot;False&quot;." promptTitle="Reversible" prompt="Enter a Boolean value&#10;&#10;Select &quot;True&quot; or &quot;False&quot;." sqref="E4:E178" errorStyle="warning">
+      <formula1>"True,False"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Rate units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Rate units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." sqref="F4:F178" errorStyle="warning">
       <formula1>"1 / second"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molar / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molar / second&quot; or blank." sqref="I4:I178" errorStyle="warning">
-      <formula1>"molar / second"</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B4:B178" errorStyle="warning">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reversible" error="Enter a Boolean value&#10;&#10;Value must be &quot;True&quot; or &quot;False&quot;." promptTitle="Reversible" prompt="Enter a Boolean value&#10;&#10;Select &quot;True&quot; or &quot;False&quot;." sqref="E4:E178" errorStyle="warning">
-      <formula1>"True,False"</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Participants" error="Value must be a reaction string using species from &quot;Species:A&quot;.&#10;&#10;Examples:&#10;* [c]: atp + h2o ==&gt; adp + pi + h&#10;* glc[e] + atp[c] + h2o[c] ==&gt; glc[e] + adp[c] + pi[c] + h[c]&#10;* (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]" promptTitle="Participants" prompt="Enter a reaction string using species from &quot;Species:A&quot;.&#10;&#10;Examples:&#10;* [c]: atp + h2o ==&gt; adp + pi + h&#10;* glc[e] + atp[c] + h2o[c] ==&gt; glc[e] + adp[c] + pi[c] + h[c]&#10;* (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]" sqref="D4:D178" errorStyle="warning"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." sqref="O4:O178" errorStyle="warning">
       <formula1/>
     </dataValidation>
@@ -17889,11 +17889,11 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="J3:J169" errorStyle="warning"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="I3:I169" errorStyle="warning"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="F3:F169" errorStyle="warning"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." sqref="E3:E169" errorStyle="warning">
+      <formula1>"Michaelis_Menten_rate_law,hill_rate_law,mass_action_rate_law,modular_rate_law"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." sqref="G3:G169" errorStyle="warning">
       <formula1>"1 / second"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." sqref="E3:E169" errorStyle="warning">
-      <formula1>"Michaelis_Menten_rate_law,hill_rate_law,mass_action_rate_law,modular_rate_law"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Direction" error="Value must be one of &quot;backward&quot;, &quot;forward&quot;." promptTitle="Direction" prompt="Select one of &quot;backward&quot;, &quot;forward&quot;." sqref="D3:D169" errorStyle="warning">
       <formula1>"backward,forward"</formula1>
@@ -18029,25 +18029,25 @@
     <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="I3" errorStyle="warning"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="L3" errorStyle="warning"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="H3" errorStyle="warning"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." sqref="M3" errorStyle="warning">
+      <formula1/>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Coefficient units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;second&quot; or blank." promptTitle="Coefficient units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;second&quot; or blank." sqref="G3" errorStyle="warning">
       <formula1>"second"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3" errorStyle="warning">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." sqref="M3" errorStyle="warning">
-      <formula1/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reaction rate units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Reaction rate units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." sqref="F3" errorStyle="warning">
+      <formula1>"1 / second"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;dimensionless&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;dimensionless&quot; or blank." sqref="E3" errorStyle="warning">
       <formula1>"dimensionless"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of dFBA objective reactions and Reactions." promptTitle="Expression" prompt="Enter a expression of dFBA objective reactions and Reactions." sqref="D3" errorStyle="warning"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="J3" errorStyle="warning"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of dFBA objective reactions and Reactions." promptTitle="Expression" prompt="Enter a expression of dFBA objective reactions and Reactions." sqref="D3" errorStyle="warning"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Submodel" error="Value must be a value from &quot;Submodels:A&quot;." promptTitle="Submodel" prompt="Select a value from &quot;Submodels:A&quot;." sqref="C3" errorStyle="warning">
       <formula1>'!Submodels'!$A$3:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reaction rate units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Reaction rate units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." sqref="F3" errorStyle="warning">
-      <formula1>"1 / second"</formula1>
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3" errorStyle="warning">
+      <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18178,26 +18178,26 @@
     <extLst/>
   </autoFilter>
   <dataValidations count="11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." sqref="K3:K4" errorStyle="warning">
+      <formula1/>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="J3:J4" errorStyle="warning"/>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="I3:I4" errorStyle="warning">
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="H3:H4" errorStyle="warning"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="G3:G4" errorStyle="warning"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." sqref="K3:K4" errorStyle="warning">
-      <formula1/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Submodel" error="Value must be a value from &quot;Submodels:A&quot; or blank." promptTitle="Submodel" prompt="Select a value from &quot;Submodels:A&quot; or blank." sqref="C3:C4" errorStyle="warning">
+      <formula1>'!Submodels'!$A$3:$A$1048576</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." sqref="D3:D4" errorStyle="warning">
+      <formula1>"1 / second"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Cell size units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;liter&quot;, &quot;gDCW&quot; or blank." promptTitle="Cell size units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;liter&quot;, &quot;gDCW&quot; or blank." sqref="E3:E4" errorStyle="warning">
       <formula1>"liter,gDCW"</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B4" errorStyle="warning">
       <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." sqref="D3:D4" errorStyle="warning">
-      <formula1>"1 / second"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Submodel" error="Value must be a value from &quot;Submodels:A&quot; or blank." promptTitle="Submodel" prompt="Select a value from &quot;Submodels:A&quot; or blank." sqref="C3:C4" errorStyle="warning">
-      <formula1>'!Submodels'!$A$3:$A$1048576</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="F3:F4" errorStyle="warning"/>
     <dataValidation type="textLength" operator="between" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." sqref="A3:A4" errorStyle="warning">
@@ -19206,9 +19206,6 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="I3:I37" errorStyle="warning"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="H3:H37" errorStyle="warning"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molar / second&quot;, &quot;mole / gDCW / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molar / second&quot;, &quot;mole / gDCW / second&quot; or blank." sqref="F3:F37" errorStyle="warning">
-      <formula1>"molar / second,mole / gDCW / second"</formula1>
-    </dataValidation>
     <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a float or blank." promptTitle="Value" prompt="Enter a float or blank." sqref="E3:E37" errorStyle="warning">
       <formula1>-1E+100</formula1>
       <formula2>1E+100</formula2>
@@ -19226,6 +19223,9 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="G3:G37" errorStyle="warning"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="dFBA objective reaction" error="Value must be a value from &quot;dFBA objective reactions:A&quot;." promptTitle="dFBA objective reaction" prompt="Select a value from &quot;dFBA objective reactions:A&quot;." sqref="C3:C37" errorStyle="warning">
       <formula1>'!dFBA objective reactions'!$A$3:$A$1048576</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molar / second&quot;, &quot;mole / gDCW / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molar / second&quot;, &quot;mole / gDCW / second&quot; or blank." sqref="F3:F37" errorStyle="warning">
+      <formula1>"molar / second,mole / gDCW / second"</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B37" errorStyle="warning">
       <formula1>255</formula1>
@@ -21556,9 +21556,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." sqref="L3:L97" errorStyle="warning">
       <formula1/>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;physical_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;physical_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." sqref="C3:C97" errorStyle="warning">
-      <formula1>"kinetic_constant,physical_constant,K_i,K_m,k_cat,v_max"</formula1>
-    </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard error" error="Value must be a float or blank." promptTitle="Standard error" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="E3:E97" errorStyle="warning">
       <formula1>-1E-100</formula1>
     </dataValidation>
@@ -21566,12 +21563,15 @@
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="I3:I97" errorStyle="warning"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="H3:H97" errorStyle="warning"/>
     <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a float or blank." promptTitle="Value" prompt="Enter a float or blank." sqref="D3:D97" errorStyle="warning">
       <formula1>-1E+100</formula1>
       <formula2>1E+100</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." sqref="F3:F97" errorStyle="warning"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="H3:H97" errorStyle="warning"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;physical_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;physical_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." sqref="C3:C97" errorStyle="warning">
+      <formula1>"kinetic_constant,physical_constant,K_i,K_m,k_cat,v_max"</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="G3:G97" errorStyle="warning"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="K3:K97" errorStyle="warning"/>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B97" errorStyle="warning">
@@ -21695,16 +21695,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." sqref="J3:J4" errorStyle="warning">
       <formula1/>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="I3:I4" errorStyle="warning"/>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="H3:H4" errorStyle="warning">
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="G3:G4" errorStyle="warning"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="F3:F4" errorStyle="warning"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="C3:C4" errorStyle="warning"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="I3:I4" errorStyle="warning"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;dimensionless&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;dimensionless&quot; or blank." sqref="D3:D4" errorStyle="warning">
       <formula1>"dimensionless"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="C3:C4" errorStyle="warning"/>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B4" errorStyle="warning">
       <formula1>255</formula1>
     </dataValidation>
@@ -22217,14 +22217,8 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Growth media" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Growth media" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="M4:M11" errorStyle="warning">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="pH units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;dimensionless&quot; or blank." promptTitle="pH units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;dimensionless&quot; or blank." sqref="L4:L11" errorStyle="warning">
-      <formula1>"dimensionless"</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Taxon" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Taxon" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G4:G11" errorStyle="warning">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Temperature units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;degC&quot; or blank." promptTitle="Temperature units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;degC&quot; or blank." sqref="J4:J11" errorStyle="warning">
-      <formula1>"degC"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;computational_observation&quot;, &quot;experimental_observation&quot;, &quot;theoretical_observation&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;computational_observation&quot;, &quot;experimental_observation&quot;, &quot;theoretical_observation&quot; or blank." sqref="F4:F11" errorStyle="warning">
+      <formula1>"computational_observation,experimental_observation,theoretical_observation"</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="pH" error="Value must be a float or blank." promptTitle="pH" prompt="Enter a float or blank." sqref="K4:K11" errorStyle="warning">
       <formula1>-1E+100</formula1>
@@ -22237,8 +22231,14 @@
       <formula1>-1E+100</formula1>
       <formula2>1E+100</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;computational_observation&quot;, &quot;experimental_observation&quot;, &quot;theoretical_observation&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;computational_observation&quot;, &quot;experimental_observation&quot;, &quot;theoretical_observation&quot; or blank." sqref="F4:F11" errorStyle="warning">
-      <formula1>"computational_observation,experimental_observation,theoretical_observation"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="pH units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;dimensionless&quot; or blank." promptTitle="pH units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;dimensionless&quot; or blank." sqref="L4:L11" errorStyle="warning">
+      <formula1>"dimensionless"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Temperature units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;degC&quot; or blank." promptTitle="Temperature units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;degC&quot; or blank." sqref="J4:J11" errorStyle="warning">
+      <formula1>"degC"</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Taxon" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Taxon" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G4:G11" errorStyle="warning">
+      <formula1>255</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Variant" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Variant" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H4:H11" errorStyle="warning">
       <formula1>255</formula1>
@@ -22272,7 +22272,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A1" sqref="A1:A13"/>
+      <selection pane="topRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
@@ -22387,9 +22387,6 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Revision" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Revision" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B7" errorStyle="warning">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Time units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;second&quot; or blank." promptTitle="Time units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;second&quot; or blank." sqref="B9" errorStyle="warning">
-      <formula1>"second"</formula1>
-    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="wc_lang version" error="Value must be a string." promptTitle="wc_lang version" prompt="Enter a string." sqref="B8" errorStyle="warning"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="B10" errorStyle="warning"/>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Branch" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Branch" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B6" errorStyle="warning">
@@ -22402,6 +22399,9 @@
     </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3" errorStyle="warning">
       <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Time units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;second&quot; or blank." promptTitle="Time units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;second&quot; or blank." sqref="B9" errorStyle="warning">
+      <formula1>"second"</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="URL" error="Enter a valid URL&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 65535 characters." promptTitle="URL" prompt="Enter a valid URL&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 65535 characters." sqref="B5" errorStyle="warning">
       <formula1>65535</formula1>
@@ -22724,9 +22724,6 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="G4:G5" errorStyle="warning">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;approximation&quot;, &quot;assumption&quot;, &quot;computation&quot;, &quot;decision&quot;, &quot;coarse_graining&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;approximation&quot;, &quot;assumption&quot;, &quot;computation&quot;, &quot;decision&quot;, &quot;coarse_graining&quot; or blank." sqref="F4:F5" errorStyle="warning">
-      <formula1>"approximation,assumption,computation,decision,coarse_graining"</formula1>
-    </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="J4:J5" errorStyle="warning"/>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Version" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Version" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H4:H5" errorStyle="warning">
       <formula1>255</formula1>
@@ -22736,6 +22733,9 @@
     </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard error" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Standard error" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D4:D5" errorStyle="warning">
       <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;approximation&quot;, &quot;assumption&quot;, &quot;computation&quot;, &quot;decision&quot;, &quot;coarse_graining&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;approximation&quot;, &quot;assumption&quot;, &quot;computation&quot;, &quot;decision&quot;, &quot;coarse_graining&quot; or blank." sqref="F4:F5" errorStyle="warning">
+      <formula1>"approximation,assumption,computation,decision,coarse_graining"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." sqref="E4:E5" errorStyle="warning"/>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B4:B5" errorStyle="warning">
@@ -23663,9 +23663,6 @@
     <extLst/>
   </autoFilter>
   <dataValidations count="19">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." sqref="S3:S23" errorStyle="warning">
-      <formula1/>
-    </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="R3:R23" errorStyle="warning">
       <formula1>4294967295</formula1>
     </dataValidation>
@@ -23685,17 +23682,17 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Publication" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Publication" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H3:H23" errorStyle="warning">
       <formula1>255</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." sqref="S3:S23" errorStyle="warning">
+      <formula1/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;article&quot;, &quot;book&quot;, &quot;proceedings&quot;, &quot;thesis&quot;, &quot;website&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;article&quot;, &quot;book&quot;, &quot;proceedings&quot;, &quot;thesis&quot;, &quot;website&quot; or blank." sqref="G3:G23" errorStyle="warning">
+      <formula1>"article,book,proceedings,thesis,website"</formula1>
+    </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Pages" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Pages" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="P3:P23" errorStyle="warning">
       <formula1>255</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Author" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Author" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D3:D23" errorStyle="warning">
       <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B23" errorStyle="warning">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;article&quot;, &quot;book&quot;, &quot;proceedings&quot;, &quot;thesis&quot;, &quot;website&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;article&quot;, &quot;book&quot;, &quot;proceedings&quot;, &quot;thesis&quot;, &quot;website&quot; or blank." sqref="G3:G23" errorStyle="warning">
-      <formula1>"article,book,proceedings,thesis,website"</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Title" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Title" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C3:C23" errorStyle="warning">
       <formula1>255</formula1>
@@ -23713,6 +23710,9 @@
       <formula1>1</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Volume" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Volume" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="K3:K23" errorStyle="warning">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B23" errorStyle="warning">
       <formula1>255</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="between" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." sqref="A3:A23" errorStyle="warning">
@@ -23956,21 +23956,25 @@
   <dataValidations count="18">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="M3" errorStyle="warning"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="L3" errorStyle="warning"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Intention type" error="Value must be a comma-separated list of WC ontology terms &quot;correct_intention_provenance&quot;, &quot;elaborate_intention_provenance&quot;, &quot;expand_intention_provenance&quot;, &quot;simplify_intention_provenance&quot; or blank." promptTitle="Intention type" prompt="Enter a comma-separated list of WC ontology terms &quot;correct_intention_provenance&quot;, &quot;elaborate_intention_provenance&quot;, &quot;expand_intention_provenance&quot;, &quot;simplify_intention_provenance&quot; or blank." sqref="J3" errorStyle="warning">
+      <formula1>"correct_intention_provenance,elaborate_intention_provenance,expand_intention_provenance,simplify_intention_provenance"</formula1>
+    </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Intention" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Intention" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="I3" errorStyle="warning">
       <formula1>4294967295</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="between" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." sqref="A3" errorStyle="warning">
+      <formula1>1</formula1>
+      <formula2>63</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reason type" error="Value must be a comma-separated list of WC ontology terms &quot;add_metadata_reason_provenance&quot;, &quot;implementation_error_reason_provenance&quot;, &quot;incorrect_interpretation_reason_provenance&quot;, &quot;migrate_version_reason_provenance&quot;, &quot;new_goal_reason_provenance&quot;, &quot;new ..." promptTitle="Reason type" prompt="Enter a comma-separated list of WC ontology terms &quot;add_metadata_reason_provenance&quot;, &quot;implementation_error_reason_provenance&quot;, &quot;incorrect_interpretation_reason_provenance&quot;, &quot;migrate_version_reason_provenance&quot;, &quot;new_goal_reason_provenance&quot;, &quot;new_knowled ..." sqref="H3" errorStyle="warning">
+      <formula1>"add_metadata_reason_provenance,implementation_error_reason_provenance,incorrect_interpretation_reason_provenance,migrate_version_reason_provenance,new_goal_reason_provenance,new_knowledge_reason_provenance"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Authors" error="Value must be a comma-separated list of values from &quot;Authors:A&quot; or blank." promptTitle="Authors" prompt="Enter a comma-separated list of values from &quot;Authors:A&quot; or blank." sqref="P3" errorStyle="warning"/>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reason" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Reason" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="G3" errorStyle="warning">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Intention type" error="Value must be a comma-separated list of WC ontology terms &quot;correct_intention_provenance&quot;, &quot;elaborate_intention_provenance&quot;, &quot;expand_intention_provenance&quot;, &quot;simplify_intention_provenance&quot; or blank." promptTitle="Intention type" prompt="Enter a comma-separated list of WC ontology terms &quot;correct_intention_provenance&quot;, &quot;elaborate_intention_provenance&quot;, &quot;expand_intention_provenance&quot;, &quot;simplify_intention_provenance&quot; or blank." sqref="J3" errorStyle="warning">
-      <formula1>"correct_intention_provenance,elaborate_intention_provenance,expand_intention_provenance,simplify_intention_provenance"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Target type" error="Value must be a comma-separated list of WC ontology terms &quot;data_target_provenance&quot;, &quot;encoding_target_provenance&quot;, &quot;metadata_target_provenance&quot;, &quot;model_target_provenance&quot;, &quot;model_dynamics_target_provenance&quot;, &quot;model_initial_conditions_target_provenance&quot; ..." promptTitle="Target type" prompt="Enter a comma-separated list of WC ontology terms &quot;data_target_provenance&quot;, &quot;encoding_target_provenance&quot;, &quot;metadata_target_provenance&quot;, &quot;model_target_provenance&quot;, &quot;model_dynamics_target_provenance&quot;, &quot;model_initial_conditions_target_provenance&quot; or blank." sqref="F3" errorStyle="warning">
       <formula1>"data_target_provenance,encoding_target_provenance,metadata_target_provenance,model_target_provenance,model_dynamics_target_provenance,model_initial_conditions_target_provenance"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reason type" error="Value must be a comma-separated list of WC ontology terms &quot;add_metadata_reason_provenance&quot;, &quot;implementation_error_reason_provenance&quot;, &quot;incorrect_interpretation_reason_provenance&quot;, &quot;migrate_version_reason_provenance&quot;, &quot;new_goal_reason_provenance&quot;, &quot;new ..." promptTitle="Reason type" prompt="Enter a comma-separated list of WC ontology terms &quot;add_metadata_reason_provenance&quot;, &quot;implementation_error_reason_provenance&quot;, &quot;incorrect_interpretation_reason_provenance&quot;, &quot;migrate_version_reason_provenance&quot;, &quot;new_goal_reason_provenance&quot;, &quot;new_knowled ..." sqref="H3" errorStyle="warning">
-      <formula1>"add_metadata_reason_provenance,implementation_error_reason_provenance,incorrect_interpretation_reason_provenance,migrate_version_reason_provenance,new_goal_reason_provenance,new_knowledge_reason_provenance"</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="between" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be between 1 and 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be between 1 and 255 characters." sqref="B3" errorStyle="warning">
       <formula1>1</formula1>
@@ -23981,6 +23985,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Target submodel" error="Value must be a value from &quot;Submodels:A&quot; or blank." promptTitle="Target submodel" prompt="Select a value from &quot;Submodels:A&quot; or blank." sqref="E3" errorStyle="warning">
       <formula1>'!Submodels'!$A$3:$A$1048576</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;copy_change_provenance&quot;, &quot;deletion_change_provenance&quot;, &quot;insertion_change_provenance&quot;, &quot;merge_change_provenance&quot;, &quot;move_change_provenance&quot;, &quot;revert_change_provenance&quot;, &quot;update_change_provenance ..." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;copy_change_provenance&quot;, &quot;deletion_change_provenance&quot;, &quot;insertion_change_provenance&quot;, &quot;merge_change_provenance&quot;, &quot;move_change_provenance&quot;, &quot;revert_change_provenance&quot;, &quot;update_change_provenance&quot; or blank." sqref="C3" errorStyle="warning">
+      <formula1>"copy_change_provenance,deletion_change_provenance,insertion_change_provenance,merge_change_provenance,move_change_provenance,revert_change_provenance,update_change_provenance"</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="N3" errorStyle="warning">
       <formula1>4294967295</formula1>
@@ -23993,14 +24000,7 @@
       <formula2>-328717</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="O3" errorStyle="warning"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;copy_change_provenance&quot;, &quot;deletion_change_provenance&quot;, &quot;insertion_change_provenance&quot;, &quot;merge_change_provenance&quot;, &quot;move_change_provenance&quot;, &quot;revert_change_provenance&quot;, &quot;update_change_provenance ..." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;copy_change_provenance&quot;, &quot;deletion_change_provenance&quot;, &quot;insertion_change_provenance&quot;, &quot;merge_change_provenance&quot;, &quot;move_change_provenance&quot;, &quot;revert_change_provenance&quot;, &quot;update_change_provenance&quot; or blank." sqref="C3" errorStyle="warning">
-      <formula1>"copy_change_provenance,deletion_change_provenance,insertion_change_provenance,merge_change_provenance,move_change_provenance,revert_change_provenance,update_change_provenance"</formula1>
-    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="K3" errorStyle="warning"/>
-    <dataValidation type="textLength" operator="between" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." sqref="A3" errorStyle="warning">
-      <formula1>1</formula1>
-      <formula2>63</formula2>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -24183,6 +24183,7 @@
   <sheetProtection insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <dataValidations count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="B8" errorStyle="warning"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="B6" errorStyle="warning"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Temperature units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;degC&quot; or blank." promptTitle="Temperature units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;degC&quot; or blank." sqref="B5" errorStyle="warning">
       <formula1>"degC"</formula1>
     </dataValidation>
@@ -24196,7 +24197,6 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3" errorStyle="warning">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="B6" errorStyle="warning"/>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="B7" errorStyle="warning">
       <formula1>4294967295</formula1>
     </dataValidation>
@@ -24342,25 +24342,25 @@
     <extLst/>
   </autoFilter>
   <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." sqref="I3:I6" errorStyle="warning">
+      <formula1/>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="H3:H6" errorStyle="warning"/>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="G3:G6" errorStyle="warning">
       <formula1>4294967295</formula1>
     </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="E3:E6" errorStyle="warning"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="F3:F6" errorStyle="warning"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="E3:E6" errorStyle="warning"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Framework" error="Value must be a comma-separated list of WC ontology terms &quot;dynamic_flux_balance_analysis&quot;, &quot;ordinary_differential_equations&quot;, &quot;stochastic_simulation_algorithm&quot;." promptTitle="Framework" prompt="Enter a comma-separated list of WC ontology terms &quot;dynamic_flux_balance_analysis&quot;, &quot;ordinary_differential_equations&quot;, &quot;stochastic_simulation_algorithm&quot;." sqref="C3:C6" errorStyle="warning">
+      <formula1>"dynamic_flux_balance_analysis,ordinary_differential_equations,stochastic_simulation_algorithm"</formula1>
+    </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B6" errorStyle="warning">
       <formula1>255</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="D3:D6" errorStyle="warning"/>
     <dataValidation type="textLength" operator="between" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." sqref="A3:A6" errorStyle="warning">
       <formula1>1</formula1>
       <formula2>63</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="D3:D6" errorStyle="warning"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." sqref="I3:I6" errorStyle="warning">
-      <formula1/>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Framework" error="Value must be a comma-separated list of WC ontology terms &quot;dynamic_flux_balance_analysis&quot;, &quot;ordinary_differential_equations&quot;, &quot;stochastic_simulation_algorithm&quot;." promptTitle="Framework" prompt="Enter a comma-separated list of WC ontology terms &quot;dynamic_flux_balance_analysis&quot;, &quot;ordinary_differential_equations&quot;, &quot;stochastic_simulation_algorithm&quot;." sqref="C3:C6" errorStyle="warning">
-      <formula1>"dynamic_flux_balance_analysis,ordinary_differential_equations,stochastic_simulation_algorithm"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24635,16 +24635,14 @@
     <mergeCell ref="M2:P2"/>
   </mergeCells>
   <dataValidations count="20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." sqref="V4:V5" errorStyle="warning">
+      <formula1/>
+    </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="T4:T5" errorStyle="warning">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="R4:R5" errorStyle="warning"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." sqref="V4:V5" errorStyle="warning">
-      <formula1/>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;dimensionless&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;dimensionless&quot; or blank." sqref="P4:P5" errorStyle="warning">
-      <formula1>"dimensionless"</formula1>
-    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="U4:U5" errorStyle="warning"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="Q4:Q5" errorStyle="warning"/>
     <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean" error="Value must be a float or blank." promptTitle="Mean" prompt="Enter a float or blank." sqref="N4:N5" errorStyle="warning">
       <formula1>-1E+100</formula1>
       <formula2>1E+100</formula2>
@@ -24652,36 +24650,38 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Initial density" error="Value must be a value from &quot;Parameters:A&quot; or blank." promptTitle="Initial density" prompt="Select a value from &quot;Parameters:A&quot; or blank." sqref="L4:L5" errorStyle="warning">
       <formula1>'!Parameters'!$A$3:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="U4:U5" errorStyle="warning"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="Q4:Q5" errorStyle="warning"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;liter&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;liter&quot; or blank." sqref="K4:K5" errorStyle="warning">
-      <formula1>"liter"</formula1>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="R4:R5" errorStyle="warning"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Geometry" error="Value must be a comma-separated list of WC ontology terms &quot;3D_compartment&quot; or blank." promptTitle="Geometry" prompt="Enter a comma-separated list of WC ontology terms &quot;3D_compartment&quot; or blank." sqref="E4:E5" errorStyle="warning">
+      <formula1>"3D_compartment"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mass units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;gram&quot; or blank." promptTitle="Mass units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;gram&quot; or blank." sqref="G4:G5" errorStyle="warning">
       <formula1>"gram"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Physical type" error="Value must be a comma-separated list of WC ontology terms &quot;fluid_compartment&quot;, &quot;membrane_compartment&quot; or blank." promptTitle="Physical type" prompt="Enter a comma-separated list of WC ontology terms &quot;fluid_compartment&quot;, &quot;membrane_compartment&quot; or blank." sqref="D4:D5" errorStyle="warning">
-      <formula1>"fluid_compartment,membrane_compartment"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Geometry" error="Value must be a comma-separated list of WC ontology terms &quot;3D_compartment&quot; or blank." promptTitle="Geometry" prompt="Enter a comma-separated list of WC ontology terms &quot;3D_compartment&quot; or blank." sqref="E4:E5" errorStyle="warning">
-      <formula1>"3D_compartment"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;liter&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;liter&quot; or blank." sqref="K4:K5" errorStyle="warning">
+      <formula1>"liter"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Parent compartment" error="Value must be a value from &quot;Compartments:A&quot; or blank." promptTitle="Parent compartment" prompt="Select a value from &quot;Compartments:A&quot; or blank." sqref="F4:F5" errorStyle="warning">
       <formula1>$A$3:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean" error="Value must be a float or blank." promptTitle="Mean" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="I4:I5" errorStyle="warning">
-      <formula1>-1E-100</formula1>
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B4:B5" errorStyle="warning">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Physical type" error="Value must be a comma-separated list of WC ontology terms &quot;fluid_compartment&quot;, &quot;membrane_compartment&quot; or blank." promptTitle="Physical type" prompt="Enter a comma-separated list of WC ontology terms &quot;fluid_compartment&quot;, &quot;membrane_compartment&quot; or blank." sqref="D4:D5" errorStyle="warning">
+      <formula1>"fluid_compartment,membrane_compartment"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Biological type" error="Value must be a comma-separated list of WC ontology terms &quot;cellular_compartment&quot;, &quot;extracellular_compartment&quot; or blank." promptTitle="Biological type" prompt="Enter a comma-separated list of WC ontology terms &quot;cellular_compartment&quot;, &quot;extracellular_compartment&quot; or blank." sqref="C4:C5" errorStyle="warning">
       <formula1>"cellular_compartment,extracellular_compartment"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B4:B5" errorStyle="warning">
-      <formula1>255</formula1>
-    </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard deviation" error="Value must be a float or blank." promptTitle="Standard deviation" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="J4:J5 O4:O5" errorStyle="warning">
       <formula1>-1E-100</formula1>
     </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean" error="Value must be a float or blank." promptTitle="Mean" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="I4:I5" errorStyle="warning">
+      <formula1>-1E-100</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="S4:S5" errorStyle="warning"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;dimensionless&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;dimensionless&quot; or blank." sqref="P4:P5" errorStyle="warning">
+      <formula1>"dimensionless"</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Distribution" error="Value must be a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;W ..." promptTitle="Distribution" prompt="Enter a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;Weibull_d ..." sqref="H4:H5 M4:M5" errorStyle="warning"/>
     <dataValidation type="textLength" operator="between" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." sqref="A4:A5" errorStyle="warning">
       <formula1>1</formula1>
@@ -28510,31 +28510,31 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Empirical formula" error="An empirical formula (e.g. 'H2O', 'CO2', or 'NaCl')&#10;&#10;Value must be an empirical formula (e.g. &quot;H2O&quot;)." promptTitle="Empirical formula" prompt="An empirical formula (e.g. 'H2O', 'CO2', or 'NaCl')&#10;&#10;Enter an empirical formula (e.g. &quot;H2O&quot;)." sqref="F4:F146" errorStyle="warning"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="N4:N146" errorStyle="warning"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="J4:J146" errorStyle="warning"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;DNA&quot;, &quot;RNA&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;DNA&quot;, &quot;RNA&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot; or blank." sqref="I4:I146" errorStyle="warning">
-      <formula1>"DNA,RNA,metabolite,protein,pseudo_species"</formula1>
+    <dataValidation type="textLength" operator="between" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." sqref="A4:A146" errorStyle="warning">
+      <formula1>1</formula1>
+      <formula2>63</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Alphabet" error="Value must be one of &quot;dna&quot;, &quot;rna&quot;, &quot;protein&quot;, &quot;canonical_dna&quot;, &quot;canonical_rna&quot;, &quot;canonical_protein&quot; or blank." promptTitle="Alphabet" prompt="Select one of &quot;dna&quot;, &quot;rna&quot;, &quot;protein&quot;, &quot;canonical_dna&quot;, &quot;canonical_rna&quot;, &quot;canonical_protein&quot; or blank." sqref="E4:E146" errorStyle="warning">
       <formula1>"dna,rna,protein,canonical_dna,canonical_rna,canonical_protein"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Format" error="Value must be one of &quot;smiles&quot;, &quot;bpforms&quot; or blank." promptTitle="Format" prompt="Select one of &quot;smiles&quot;, &quot;bpforms&quot; or blank." sqref="D4:D146" errorStyle="warning">
-      <formula1>"smiles,bpforms"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Charge" error="Value must be an integer." promptTitle="Charge" prompt="Enter an integer." sqref="H4:H146" errorStyle="warning">
       <formula1>-32768</formula1>
       <formula2>32767</formula2>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Format" error="Value must be one of &quot;smiles&quot;, &quot;bpforms&quot; or blank." promptTitle="Format" prompt="Select one of &quot;smiles&quot;, &quot;bpforms&quot; or blank." sqref="D4:D146" errorStyle="warning">
+      <formula1>"smiles,bpforms"</formula1>
+    </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Value" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="C4:C146" errorStyle="warning">
       <formula1>4294967295</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;DNA&quot;, &quot;RNA&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;DNA&quot;, &quot;RNA&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot; or blank." sqref="I4:I146" errorStyle="warning">
+      <formula1>"DNA,RNA,metabolite,protein,pseudo_species"</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Molecular weight" error="Value must be a float or blank." promptTitle="Molecular weight" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="G4:G146" errorStyle="warning">
       <formula1>-1E-100</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B4:B146" errorStyle="warning">
       <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="between" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." sqref="A4:A146" errorStyle="warning">
-      <formula1>1</formula1>
-      <formula2>63</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32293,18 +32293,18 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." sqref="K3:K177" errorStyle="warning">
       <formula1/>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="F3:F177" errorStyle="warning"/>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="I3:I177" errorStyle="warning">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="F3:F177" errorStyle="warning"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot; or blank." sqref="E3:E177" errorStyle="warning">
+      <formula1>"molecule"</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="H3:H177" errorStyle="warning"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Compartment" error="Value must be a value from &quot;Compartments:A&quot;." promptTitle="Compartment" prompt="Select a value from &quot;Compartments:A&quot;." sqref="D3:D177" errorStyle="warning">
       <formula1>'!Compartments'!$A$3:$A$1048576</formula1>
     </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="G3:G177" errorStyle="warning"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot; or blank." sqref="E3:E177" errorStyle="warning">
-      <formula1>"molecule"</formula1>
-    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Species type" error="Value must be a value from &quot;Species types:A&quot;." promptTitle="Species type" prompt="Select a value from &quot;Species types:A&quot;." sqref="C3:C177" errorStyle="warning">
       <formula1>'!Species types'!$A$3:$A$1048576</formula1>
     </dataValidation>

--- a/tests/fixtures/migrate/fully_instantiated_wc_lang_model.xlsx
+++ b/tests/fixtures/migrate/fully_instantiated_wc_lang_model.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="953" visibility="visible" windowHeight="6840" windowWidth="20295"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="20295" windowHeight="6840" tabRatio="953" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
@@ -32,27 +32,27 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Changes" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!!_Table of contents'!$A$2:$C$25</definedName>
-    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'!!Submodels'!$A$2:$I$6</definedName>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!!Compartments'!$A$3:$V$5</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!!Species types'!$A$3:$O$146</definedName>
-    <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">'!!Species'!$A$2:$K$177</definedName>
-    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'!!Initial species concentrations'!$A$2:$M$127</definedName>
-    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">'!!Observables'!$A$2:$J$6</definedName>
-    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">'!!Functions'!$A$2:$J$7</definedName>
-    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!!Reactions'!$A$3:$O$178</definedName>
-    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">'!!Rate laws'!$A$2:$M$169</definedName>
-    <definedName hidden="1" localSheetId="13" name="_xlnm._FilterDatabase">'!!dFBA objectives'!$A$2:$M$3</definedName>
-    <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">'!!dFBA objective reactions'!$A$2:$K$4</definedName>
-    <definedName hidden="1" localSheetId="15" name="_xlnm._FilterDatabase">'!!dFBA objective species'!$A$2:$L$37</definedName>
-    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!!Parameters'!$A$2:$L$97</definedName>
-    <definedName hidden="1" localSheetId="17" name="_xlnm._FilterDatabase">'!!Stop conditions'!$A$2:$J$4</definedName>
-    <definedName hidden="1" localSheetId="18" name="_xlnm._FilterDatabase">'!!Observations'!$A$3:$X$11</definedName>
-    <definedName hidden="1" localSheetId="19" name="_xlnm._FilterDatabase">'!!Observation sets'!$A$2:$G$5</definedName>
-    <definedName hidden="1" localSheetId="20" name="_xlnm._FilterDatabase">'!!Conclusions'!$A$3:$O$5</definedName>
-    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!!References'!$A$2:$S$23</definedName>
-    <definedName hidden="1" localSheetId="22" name="_xlnm._FilterDatabase">'!!Authors'!$A$2:$M$2</definedName>
-    <definedName hidden="1" localSheetId="23" name="_xlnm._FilterDatabase">'!!Changes'!$A$2:$R$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!_Table of contents'!$A$2:$C$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!!Submodels'!$A$2:$I$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!!Compartments'!$A$3:$V$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!!Species types'!$A$3:$O$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'!!Species'!$A$2:$K$177</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'!!Initial species concentrations'!$A$2:$M$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'!!Observables'!$A$2:$J$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'!!Functions'!$A$2:$J$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'!!Reactions'!$A$3:$O$178</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'!!Rate laws'!$A$2:$M$169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'!!dFBA objectives'!$A$2:$M$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'!!dFBA objective reactions'!$A$2:$K$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'!!dFBA objective species'!$A$2:$L$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'!!Parameters'!$A$2:$L$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'!!Stop conditions'!$A$2:$J$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'!!Observations'!$A$3:$X$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'!!Observation sets'!$A$2:$G$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'!!Conclusions'!$A$3:$O$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'!!References'!$A$2:$S$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'!!Authors'!$A$2:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'!!Changes'!$A$2:$R$2</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -61,9 +61,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" numFmtId="164"/>
-    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="165"/>
-    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="166"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -570,269 +570,269 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="34" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="23" numFmtId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="35" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="20" numFmtId="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="17" numFmtId="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="13" fontId="21" numFmtId="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="12" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="28" fontId="24" numFmtId="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="13" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="22" numFmtId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="6" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="35">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="35">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="52" name="60% - Accent6" xfId="1"/>
-    <cellStyle builtinId="51" name="40% - Accent6" xfId="2"/>
-    <cellStyle builtinId="48" name="60% - Accent5" xfId="3"/>
-    <cellStyle builtinId="49" name="Accent6" xfId="4"/>
-    <cellStyle builtinId="47" name="40% - Accent5" xfId="5"/>
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="6"/>
-    <cellStyle builtinId="44" name="60% - Accent4" xfId="7"/>
-    <cellStyle builtinId="45" name="Accent5" xfId="8"/>
-    <cellStyle builtinId="43" name="40% - Accent4" xfId="9"/>
-    <cellStyle builtinId="41" name="Accent4" xfId="10"/>
-    <cellStyle builtinId="24" name="Linked Cell" xfId="11"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="12"/>
-    <cellStyle builtinId="36" name="60% - Accent2" xfId="13"/>
-    <cellStyle builtinId="37" name="Accent3" xfId="14"/>
-    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
-    <cellStyle builtinId="34" name="20% - Accent2" xfId="16"/>
-    <cellStyle builtinId="33" name="Accent2" xfId="17"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="18"/>
-    <cellStyle builtinId="30" name="20% - Accent1" xfId="19"/>
-    <cellStyle builtinId="29" name="Accent1" xfId="20"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="21"/>
-    <cellStyle builtinId="32" name="60% - Accent1" xfId="22"/>
-    <cellStyle builtinId="27" name="Bad" xfId="23"/>
-    <cellStyle builtinId="42" name="20% - Accent4" xfId="24"/>
-    <cellStyle builtinId="25" name="Total" xfId="25"/>
-    <cellStyle builtinId="21" name="Output" xfId="26"/>
-    <cellStyle builtinId="4" name="Currency" xfId="27"/>
-    <cellStyle builtinId="38" name="20% - Accent3" xfId="28"/>
-    <cellStyle builtinId="10" name="Note" xfId="29"/>
-    <cellStyle builtinId="20" name="Input" xfId="30"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="31"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="32"/>
-    <cellStyle builtinId="26" name="Good" xfId="33"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="34"/>
-    <cellStyle builtinId="53" name="CExplanatory Text" xfId="35"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="36"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="37"/>
-    <cellStyle builtinId="50" name="20% - Accent6" xfId="38"/>
-    <cellStyle builtinId="15" name="Title" xfId="39"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="40"/>
-    <cellStyle builtinId="11" name="Warning Text" xfId="41"/>
-    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="42"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="43"/>
-    <cellStyle builtinId="3" name="Comma" xfId="44"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="45"/>
-    <cellStyle builtinId="40" name="60% - Accent3" xfId="46"/>
-    <cellStyle builtinId="5" name="Percent" xfId="47"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="48"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -842,7 +842,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A8" shapeId="0">
+    <comment ref="A8" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Model:0" or blank.</t>
       </text>
@@ -857,7 +857,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="O3" shapeId="0">
+    <comment ref="O3" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Model:0" or blank.</t>
       </text>
@@ -872,7 +872,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="M2" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Model:0" or blank.</t>
       </text>
@@ -887,7 +887,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="M2" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Model:0" or blank.</t>
       </text>
@@ -902,7 +902,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="K2" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Model:0" or blank.</t>
       </text>
@@ -917,7 +917,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="L2" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Model:0" or blank.</t>
       </text>
@@ -932,7 +932,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="L2" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Model:0" or blank.</t>
       </text>
@@ -947,7 +947,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="J2" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Model:0" or blank.</t>
       </text>
@@ -962,7 +962,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="X3" shapeId="0">
+    <comment ref="X3" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Model:0" or blank.</t>
       </text>
@@ -977,7 +977,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="G2" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Model:0" or blank.</t>
       </text>
@@ -992,7 +992,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="O3" shapeId="0">
+    <comment ref="O3" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Model:0" or blank.</t>
       </text>
@@ -1007,7 +1007,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A9" shapeId="0">
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Model:0" or blank.</t>
       </text>
@@ -1022,7 +1022,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="S2" shapeId="0">
+    <comment ref="S2" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Model:0" or blank.</t>
       </text>
@@ -1037,7 +1037,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="M2" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Model:0" or blank.</t>
       </text>
@@ -1052,7 +1052,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="R2" shapeId="0">
+    <comment ref="R2" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Model:0" or blank.</t>
       </text>
@@ -1067,7 +1067,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="I2" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Model:0" or blank.</t>
       </text>
@@ -1082,7 +1082,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="V3" shapeId="0">
+    <comment ref="V3" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Model:0" or blank.</t>
       </text>
@@ -1097,7 +1097,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="O3" shapeId="0">
+    <comment ref="O3" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Model:0" or blank.</t>
       </text>
@@ -1112,7 +1112,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="K2" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Model:0" or blank.</t>
       </text>
@@ -1127,7 +1127,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="M2" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Model:0" or blank.</t>
       </text>
@@ -1142,7 +1142,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="J2" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Model:0" or blank.</t>
       </text>
@@ -1157,7 +1157,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="J2" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <t>Select a value from "Model:0" or blank.</t>
       </text>
@@ -1457,28 +1457,28 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="2"/>
+      <pane ySplit="2" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A2" pane="bottomLeft" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="3" min="1" style="21" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="4" style="21" width="9"/>
+    <col width="15.7083333333333" customWidth="1" style="21" min="1" max="3"/>
+    <col hidden="1" width="9" customWidth="1" style="21" min="4" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="21">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" r="2" s="1">
+          <t>!!!ObjTables objTablesVersion='0.0.8'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" customFormat="1" s="1">
       <c r="A2" s="20" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='TableOfContents'</t>
+          <t>!!ObjTables type='TableOfContents'</t>
         </is>
       </c>
     </row>
@@ -1755,31 +1755,31 @@
   </sheetData>
   <autoFilter ref="A2:C25"/>
   <hyperlinks>
-    <hyperlink display="Model" location="'Model'!A1" ref="A3" tooltip="Click to view model"/>
-    <hyperlink display="Taxon" location="'Taxon'!A1" ref="A4" tooltip="Click to view taxon"/>
-    <hyperlink display="Environment" location="'Environment'!A1" ref="A5" tooltip="Click to view environment"/>
-    <hyperlink display="Submodels" location="'Submodels'!A1" ref="A6" tooltip="Click to view submodels"/>
-    <hyperlink display="Compartments" location="'Compartments'!A1" ref="A7" tooltip="Click to view compartments"/>
-    <hyperlink display="Species types" location="'Species types'!A1" ref="A8" tooltip="Click to view species types"/>
-    <hyperlink display="Species" location="'Species'!A1" ref="A9" tooltip="Click to view species"/>
-    <hyperlink display="Initial species concentrations" location="'Initial species concentrations'!A1" ref="A10" tooltip="Click to view initial species concentrations"/>
-    <hyperlink display="Observables" location="'Observables'!A1" ref="A11" tooltip="Click to view observables"/>
-    <hyperlink display="Functions" location="'Functions'!A1" ref="A12" tooltip="Click to view functions"/>
-    <hyperlink display="Reactions" location="'Reactions'!A1" ref="A13" tooltip="Click to view reactions"/>
-    <hyperlink display="Rate laws" location="'Rate laws'!A1" ref="A14" tooltip="Click to view rate laws"/>
-    <hyperlink display="dFBA objectives" location="'dFBA objectives'!A1" ref="A15" tooltip="Click to view dfba objectives"/>
-    <hyperlink display="dFBA objective reactions" location="'dFBA objective reactions'!A1" ref="A16" tooltip="Click to view dfba objective reactions"/>
-    <hyperlink display="dFBA objective species" location="'dFBA objective species'!A1" ref="A17" tooltip="Click to view dfba objective species"/>
-    <hyperlink display="Parameters" location="'Parameters'!A1" ref="A18" tooltip="Click to view parameters"/>
-    <hyperlink display="Stop conditions" location="'Stop conditions'!A1" ref="A19" tooltip="Click to view stop conditions"/>
-    <hyperlink display="Observations" location="'Observations'!A1" ref="A20" tooltip="Click to view observations"/>
-    <hyperlink display="Observation sets" location="'Observation sets'!A1" ref="A21" tooltip="Click to view observation sets"/>
-    <hyperlink display="Conclusions" location="'Conclusions'!A1" ref="A22" tooltip="Click to view conclusions"/>
-    <hyperlink display="References" location="'References'!A1" ref="A23" tooltip="Click to view references"/>
-    <hyperlink display="Authors" location="'Authors'!A1" ref="A24" tooltip="Click to view authors"/>
-    <hyperlink display="Changes" location="'Changes'!A1" ref="A25" tooltip="Click to view changes"/>
+    <hyperlink ref="A3" location="'Model'!A1" tooltip="Click to view model" display="Model"/>
+    <hyperlink ref="A4" location="'Taxon'!A1" tooltip="Click to view taxon" display="Taxon"/>
+    <hyperlink ref="A5" location="'Environment'!A1" tooltip="Click to view environment" display="Environment"/>
+    <hyperlink ref="A6" location="'Submodels'!A1" tooltip="Click to view submodels" display="Submodels"/>
+    <hyperlink ref="A7" location="'Compartments'!A1" tooltip="Click to view compartments" display="Compartments"/>
+    <hyperlink ref="A8" location="'Species types'!A1" tooltip="Click to view species types" display="Species types"/>
+    <hyperlink ref="A9" location="'Species'!A1" tooltip="Click to view species" display="Species"/>
+    <hyperlink ref="A10" location="'Initial species concentrations'!A1" tooltip="Click to view initial species concentrations" display="Initial species concentrations"/>
+    <hyperlink ref="A11" location="'Observables'!A1" tooltip="Click to view observables" display="Observables"/>
+    <hyperlink ref="A12" location="'Functions'!A1" tooltip="Click to view functions" display="Functions"/>
+    <hyperlink ref="A13" location="'Reactions'!A1" tooltip="Click to view reactions" display="Reactions"/>
+    <hyperlink ref="A14" location="'Rate laws'!A1" tooltip="Click to view rate laws" display="Rate laws"/>
+    <hyperlink ref="A15" location="'dFBA objectives'!A1" tooltip="Click to view dfba objectives" display="dFBA objectives"/>
+    <hyperlink ref="A16" location="'dFBA objective reactions'!A1" tooltip="Click to view dfba objective reactions" display="dFBA objective reactions"/>
+    <hyperlink ref="A17" location="'dFBA objective species'!A1" tooltip="Click to view dfba objective species" display="dFBA objective species"/>
+    <hyperlink ref="A18" location="'Parameters'!A1" tooltip="Click to view parameters" display="Parameters"/>
+    <hyperlink ref="A19" location="'Stop conditions'!A1" tooltip="Click to view stop conditions" display="Stop conditions"/>
+    <hyperlink ref="A20" location="'Observations'!A1" tooltip="Click to view observations" display="Observations"/>
+    <hyperlink ref="A21" location="'Observation sets'!A1" tooltip="Click to view observation sets" display="Observation sets"/>
+    <hyperlink ref="A22" location="'Conclusions'!A1" tooltip="Click to view conclusions" display="Conclusions"/>
+    <hyperlink ref="A23" location="'References'!A1" tooltip="Click to view references" display="References"/>
+    <hyperlink ref="A24" location="'Authors'!A1" tooltip="Click to view authors" display="Authors"/>
+    <hyperlink ref="A25" location="'Changes'!A1" tooltip="Click to view changes" display="Changes"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1792,21 +1792,21 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="2"/>
+      <pane ySplit="2" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="J3" pane="bottomLeft" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
   <cols>
-    <col customWidth="1" max="10" min="1" style="21" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="11" style="21" width="9"/>
+    <col width="15.7083333333333" customWidth="1" style="21" min="1" max="10"/>
+    <col hidden="1" width="9" customWidth="1" style="21" min="11" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="21">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='Observable'</t>
+          <t>!!ObjTables type='Date' id='Observable'</t>
         </is>
       </c>
       <c r="B1" s="15" t="n"/>
@@ -1969,27 +1969,27 @@
   </sheetData>
   <autoFilter ref="A2:J6"/>
   <dataValidations count="10">
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Model:0&quot; or blank." errorStyle="warning" errorTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." promptTitle="Model" showErrorMessage="1" showInputMessage="1" sqref="J3:J6" type="list"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="I3:I6"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning" errorTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" showErrorMessage="1" showInputMessage="1" sqref="G3:G6"/>
-    <dataValidation allowBlank="0" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning" errorTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" showErrorMessage="1" showInputMessage="1" sqref="F3:F6"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="H3:H6" type="textLength">
+    <dataValidation sqref="J3:J6" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." type="list" errorStyle="warning"/>
+    <dataValidation sqref="I3:I6" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="G3:G6" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="F3:F6" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning"/>
+    <dataValidation sqref="H3:H6" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot; or blank." errorStyle="warning" errorTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot; or blank." promptTitle="Units" showErrorMessage="1" showInputMessage="1" sqref="D3:D6" type="list">
+    <dataValidation sqref="D3:D6" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot; or blank." type="list" errorStyle="warning">
       <formula1>"molecule"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B3:B6" type="textLength">
+    <dataValidation sqref="B3:B6" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="Id" operator="between" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A3:A6" type="textLength">
+    <dataValidation sqref="A3:A6" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="E3:E6"/>
-    <dataValidation allowBlank="0" error="Value must be a linear expression of Observables and Species." errorStyle="warning" errorTitle="Expression" prompt="Enter a linear expression of Observables and Species." promptTitle="Expression" showErrorMessage="1" showInputMessage="1" sqref="C3:C6"/>
+    <dataValidation sqref="E3:E6" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="C3:C6" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Expression" error="Value must be a linear expression of Observables and Species." promptTitle="Expression" prompt="Enter a linear expression of Observables and Species." errorStyle="warning"/>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -2003,21 +2003,21 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="2"/>
+      <pane ySplit="2" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="J3" pane="bottomLeft" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col customWidth="1" max="10" min="1" style="21" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="11" style="21" width="9"/>
+    <col width="15.7083333333333" customWidth="1" style="21" min="1" max="10"/>
+    <col hidden="1" width="9" customWidth="1" style="21" min="11" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="21">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='Function'</t>
+          <t>!!ObjTables type='Date' id='Function'</t>
         </is>
       </c>
       <c r="B1" s="15" t="n"/>
@@ -2204,25 +2204,25 @@
   </sheetData>
   <autoFilter ref="A2:J7"/>
   <dataValidations count="10">
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Model:0&quot; or blank." errorStyle="warning" errorTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." promptTitle="Model" showErrorMessage="1" showInputMessage="1" sqref="J3:J7" type="list"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="I3:I7"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="H3:H7" type="textLength">
+    <dataValidation sqref="J3:J7" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." type="list" errorStyle="warning"/>
+    <dataValidation sqref="I3:I7" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="H3:H7" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning" errorTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" showErrorMessage="1" showInputMessage="1" sqref="G3:G7"/>
-    <dataValidation allowBlank="0" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning" errorTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" showErrorMessage="1" showInputMessage="1" sqref="F3:F7"/>
-    <dataValidation allowBlank="0" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." errorStyle="warning" errorTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" showErrorMessage="1" showInputMessage="1" sqref="C3:C7"/>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." errorStyle="warning" errorTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." promptTitle="Units" showErrorMessage="1" showInputMessage="1" sqref="D3:D7"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B3:B7" type="textLength">
+    <dataValidation sqref="G3:G7" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="F3:F7" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning"/>
+    <dataValidation sqref="C3:C7" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." errorStyle="warning"/>
+    <dataValidation sqref="D3:D7" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." errorStyle="warning"/>
+    <dataValidation sqref="B3:B7" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="E3:E7"/>
-    <dataValidation allowBlank="0" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="Id" operator="between" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A3:A7" type="textLength">
+    <dataValidation sqref="E3:E7" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="A3:A7" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -2236,21 +2236,21 @@
   <dimension ref="A1:O178"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="3"/>
+      <pane ySplit="3" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="O4" pane="bottomLeft" sqref="O4"/>
+      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="15" min="1" style="21" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="16" style="21" width="9"/>
+    <col width="15.7083333333333" customWidth="1" style="21" min="1" max="15"/>
+    <col hidden="1" width="9" customWidth="1" style="21" min="16" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="21">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='Reaction'</t>
+          <t>!!ObjTables type='Date' id='Reaction'</t>
         </is>
       </c>
       <c r="B1" s="15" t="n"/>
@@ -9194,43 +9194,43 @@
     <mergeCell ref="G2:I2"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning" errorTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" showErrorMessage="1" showInputMessage="1" sqref="L4:L178"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="M4:M178" type="textLength">
+    <dataValidation sqref="L4:L178" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="M4:M178" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molar / second&quot; or blank." errorStyle="warning" errorTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molar / second&quot; or blank." promptTitle="Units" showErrorMessage="1" showInputMessage="1" sqref="I4:I178" type="list">
+    <dataValidation sqref="I4:I178" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molar / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molar / second&quot; or blank." type="list" errorStyle="warning">
       <formula1>"molar / second"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a float or blank." errorStyle="warning" errorTitle="Maximum" operator="greaterThanOrEqual" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." promptTitle="Maximum" showErrorMessage="1" showInputMessage="1" sqref="H4:H178" type="decimal">
+    <dataValidation sqref="H4:H178" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Maximum" error="Value must be a float or blank." promptTitle="Maximum" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." type="decimal" errorStyle="warning" operator="greaterThanOrEqual">
       <formula1>-1E-100</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a float or blank." errorStyle="warning" errorTitle="Minimum" operator="between" prompt="Enter a float or blank." promptTitle="Minimum" showErrorMessage="1" showInputMessage="1" sqref="G4:G178" type="decimal">
+    <dataValidation sqref="G4:G178" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Minimum" error="Value must be a float or blank." promptTitle="Minimum" prompt="Enter a float or blank." type="decimal" errorStyle="warning" operator="between">
       <formula1>-1E+100</formula1>
       <formula2>1E+100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a reaction string using species from &quot;Species:A&quot;.&#10;&#10;Examples:&#10;* [c]: atp + h2o ==&gt; adp + pi + h&#10;* glc[e] + atp[c] + h2o[c] ==&gt; glc[e] + adp[c] + pi[c] + h[c]&#10;* (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]" errorStyle="warning" errorTitle="Participants" prompt="Enter a reaction string using species from &quot;Species:A&quot;.&#10;&#10;Examples:&#10;* [c]: atp + h2o ==&gt; adp + pi + h&#10;* glc[e] + atp[c] + h2o[c] ==&gt; glc[e] + adp[c] + pi[c] + h[c]&#10;* (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]" promptTitle="Participants" showErrorMessage="1" showInputMessage="1" sqref="D4:D178"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B4:B178" type="textLength">
+    <dataValidation sqref="D4:D178" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Participants" error="Value must be a reaction string using species from &quot;Species:A&quot;.&#10;&#10;Examples:&#10;* [c]: atp + h2o ==&gt; adp + pi + h&#10;* glc[e] + atp[c] + h2o[c] ==&gt; glc[e] + adp[c] + pi[c] + h[c]&#10;* (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]" promptTitle="Participants" prompt="Enter a reaction string using species from &quot;Species:A&quot;.&#10;&#10;Examples:&#10;* [c]: atp + h2o ==&gt; adp + pi + h&#10;* glc[e] + atp[c] + h2o[c] ==&gt; glc[e] + adp[c] + pi[c] + h[c]&#10;* (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]" errorStyle="warning"/>
+    <dataValidation sqref="B4:B178" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning" errorTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" showErrorMessage="1" showInputMessage="1" sqref="K4:K178"/>
-    <dataValidation allowBlank="0" error="Enter a Boolean value&#10;&#10;Value must be &quot;True&quot; or &quot;False&quot;." errorStyle="warning" errorTitle="Reversible" prompt="Enter a Boolean value&#10;&#10;Select &quot;True&quot; or &quot;False&quot;." promptTitle="Reversible" showErrorMessage="1" showInputMessage="1" sqref="E4:E178" type="list">
+    <dataValidation sqref="K4:K178" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning"/>
+    <dataValidation sqref="E4:E178" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Reversible" error="Enter a Boolean value&#10;&#10;Value must be &quot;True&quot; or &quot;False&quot;." promptTitle="Reversible" prompt="Enter a Boolean value&#10;&#10;Select &quot;True&quot; or &quot;False&quot;." type="list" errorStyle="warning">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." errorStyle="warning" errorTitle="Rate units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." promptTitle="Rate units" showErrorMessage="1" showInputMessage="1" sqref="F4:F178" type="list">
+    <dataValidation sqref="F4:F178" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Rate units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Rate units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." type="list" errorStyle="warning">
       <formula1>"1 / second"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Model:0&quot; or blank." errorStyle="warning" errorTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." promptTitle="Model" showErrorMessage="1" showInputMessage="1" sqref="O4:O178" type="list"/>
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Submodels:A&quot; or blank." errorStyle="warning" errorTitle="Submodel" prompt="Select a value from &quot;Submodels:A&quot; or blank." promptTitle="Submodel" showErrorMessage="1" showInputMessage="1" sqref="C4:C178" type="list">
+    <dataValidation sqref="O4:O178" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." type="list" errorStyle="warning"/>
+    <dataValidation sqref="C4:C178" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Submodel" error="Value must be a value from &quot;Submodels:A&quot; or blank." promptTitle="Submodel" prompt="Select a value from &quot;Submodels:A&quot; or blank." type="list" errorStyle="warning">
       <formula1>'!Submodels'!$A$3:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="N4:N178"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="J4:J178"/>
-    <dataValidation allowBlank="0" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="Id" operator="between" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A4:A178" type="textLength">
+    <dataValidation sqref="N4:N178" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="J4:J178" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="A4:A178" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -9244,21 +9244,21 @@
   <dimension ref="A1:M169"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="2"/>
+      <pane ySplit="2" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="M3" pane="bottomLeft" sqref="M3"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="13" min="1" style="21" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="14" style="21" width="9"/>
+    <col width="15.7083333333333" customWidth="1" style="21" min="1" max="13"/>
+    <col hidden="1" width="9" customWidth="1" style="21" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="21">
       <c r="A1" s="8" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='RateLaw'</t>
+          <t>!!ObjTables type='Date' id='RateLaw'</t>
         </is>
       </c>
       <c r="B1" s="8" t="n"/>
@@ -15196,35 +15196,35 @@
   </sheetData>
   <autoFilter ref="A2:M169"/>
   <dataValidations count="13">
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Model:0&quot; or blank." errorStyle="warning" errorTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." promptTitle="Model" showErrorMessage="1" showInputMessage="1" sqref="M3:M169" type="list"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="Id" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A3:A169" type="textLength">
+    <dataValidation sqref="M3:M169" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." type="list" errorStyle="warning"/>
+    <dataValidation sqref="A3:A169" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="K3:K169" type="textLength">
+    <dataValidation sqref="K3:K169" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning" errorTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" showErrorMessage="1" showInputMessage="1" sqref="J3:J169"/>
-    <dataValidation allowBlank="0" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning" errorTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" showErrorMessage="1" showInputMessage="1" sqref="I3:I169"/>
-    <dataValidation allowBlank="0" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." errorStyle="warning" errorTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" showErrorMessage="1" showInputMessage="1" sqref="F3:F169"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." errorStyle="warning" errorTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." promptTitle="Type" showErrorMessage="1" showInputMessage="1" sqref="E3:E169" type="list">
+    <dataValidation sqref="J3:J169" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="I3:I169" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning"/>
+    <dataValidation sqref="F3:F169" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." errorStyle="warning"/>
+    <dataValidation sqref="E3:E169" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." type="list" errorStyle="warning">
       <formula1>"Michaelis_Menten_rate_law,hill_rate_law,mass_action_rate_law,modular_rate_law"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." errorStyle="warning" errorTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." promptTitle="Units" showErrorMessage="1" showInputMessage="1" sqref="G3:G169" type="list">
+    <dataValidation sqref="G3:G169" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." type="list" errorStyle="warning">
       <formula1>"1 / second"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be one of &quot;backward&quot;, &quot;forward&quot;." errorStyle="warning" errorTitle="Direction" prompt="Select one of &quot;backward&quot;, &quot;forward&quot;." promptTitle="Direction" showErrorMessage="1" showInputMessage="1" sqref="D3:D169" type="list">
+    <dataValidation sqref="D3:D169" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Direction" error="Value must be one of &quot;backward&quot;, &quot;forward&quot;." promptTitle="Direction" prompt="Select one of &quot;backward&quot;, &quot;forward&quot;." type="list" errorStyle="warning">
       <formula1>"backward,forward"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="L3:L169"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="H3:H169"/>
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Reactions:A&quot; or blank." errorStyle="warning" errorTitle="Reaction" prompt="Select a value from &quot;Reactions:A&quot; or blank." promptTitle="Reaction" showErrorMessage="1" showInputMessage="1" sqref="C3:C169" type="list">
+    <dataValidation sqref="L3:L169" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="H3:H169" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="C3:C169" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Reaction" error="Value must be a value from &quot;Reactions:A&quot; or blank." promptTitle="Reaction" prompt="Select a value from &quot;Reactions:A&quot; or blank." type="list" errorStyle="warning">
       <formula1>'!Reactions'!$A$3:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B3:B169" type="textLength">
+    <dataValidation sqref="B3:B169" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -15238,21 +15238,21 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="2"/>
+      <pane ySplit="2" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="M3" pane="bottomLeft" sqref="M3"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="13" min="1" style="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="14" style="1" width="9"/>
+    <col width="15.7083333333333" customWidth="1" style="1" min="1" max="13"/>
+    <col hidden="1" width="9" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="21">
       <c r="A1" s="8" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='DfbaObjective'</t>
+          <t>!!ObjTables type='Date' id='DfbaObjective'</t>
         </is>
       </c>
       <c r="B1" s="8" t="n"/>
@@ -15376,35 +15376,35 @@
   </sheetData>
   <autoFilter ref="A2:M3"/>
   <dataValidations count="13">
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="Id" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A3" type="textLength">
+    <dataValidation sqref="A3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="K3" type="textLength">
+    <dataValidation sqref="K3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning" errorTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" showErrorMessage="1" showInputMessage="1" sqref="I3"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="L3"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="H3"/>
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Model:0&quot; or blank." errorStyle="warning" errorTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." promptTitle="Model" showErrorMessage="1" showInputMessage="1" sqref="M3" type="list"/>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;second&quot; or blank." errorStyle="warning" errorTitle="Coefficient units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;second&quot; or blank." promptTitle="Coefficient units" showErrorMessage="1" showInputMessage="1" sqref="G3" type="list">
+    <dataValidation sqref="I3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning"/>
+    <dataValidation sqref="L3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="H3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="M3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." type="list" errorStyle="warning"/>
+    <dataValidation sqref="G3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Coefficient units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;second&quot; or blank." promptTitle="Coefficient units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;second&quot; or blank." type="list" errorStyle="warning">
       <formula1>"second"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." errorStyle="warning" errorTitle="Reaction rate units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." promptTitle="Reaction rate units" showErrorMessage="1" showInputMessage="1" sqref="F3" type="list">
+    <dataValidation sqref="F3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Reaction rate units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Reaction rate units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." type="list" errorStyle="warning">
       <formula1>"1 / second"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;dimensionless&quot; or blank." errorStyle="warning" errorTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;dimensionless&quot; or blank." promptTitle="Units" showErrorMessage="1" showInputMessage="1" sqref="E3" type="list">
+    <dataValidation sqref="E3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;dimensionless&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;dimensionless&quot; or blank." type="list" errorStyle="warning">
       <formula1>"dimensionless"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a expression of dFBA objective reactions and Reactions." errorStyle="warning" errorTitle="Expression" prompt="Enter a expression of dFBA objective reactions and Reactions." promptTitle="Expression" showErrorMessage="1" showInputMessage="1" sqref="D3"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning" errorTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" showErrorMessage="1" showInputMessage="1" sqref="J3"/>
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Submodels:A&quot;." errorStyle="warning" errorTitle="Submodel" prompt="Select a value from &quot;Submodels:A&quot;." promptTitle="Submodel" showErrorMessage="1" showInputMessage="1" sqref="C3" type="list">
+    <dataValidation sqref="D3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Expression" error="Value must be a expression of dFBA objective reactions and Reactions." promptTitle="Expression" prompt="Enter a expression of dFBA objective reactions and Reactions." errorStyle="warning"/>
+    <dataValidation sqref="J3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="C3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Submodel" error="Value must be a value from &quot;Submodels:A&quot;." promptTitle="Submodel" prompt="Select a value from &quot;Submodels:A&quot;." type="list" errorStyle="warning">
       <formula1>'!Submodels'!$A$3:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B3" type="textLength">
+    <dataValidation sqref="B3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -15418,21 +15418,21 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="2"/>
+      <pane ySplit="2" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="K3" pane="bottomLeft" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="3"/>
   <cols>
-    <col customWidth="1" max="11" min="1" style="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="12" style="1" width="9"/>
+    <col width="15.7083333333333" customWidth="1" style="1" min="1" max="11"/>
+    <col hidden="1" width="9" customWidth="1" style="1" min="12" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="21">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='DfbaObjReaction'</t>
+          <t>!!ObjTables type='Date' id='DfbaObjReaction'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -15579,32 +15579,32 @@
   </sheetData>
   <autoFilter ref="A2:K4"/>
   <dataValidations count="11">
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Model:0&quot; or blank." errorStyle="warning" errorTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." promptTitle="Model" showErrorMessage="1" showInputMessage="1" sqref="K3:K4" type="list"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="J3:J4"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="I3:I4" type="textLength">
+    <dataValidation sqref="K3:K4" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." type="list" errorStyle="warning"/>
+    <dataValidation sqref="J3:J4" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="I3:I4" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning" errorTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" showErrorMessage="1" showInputMessage="1" sqref="H3:H4"/>
-    <dataValidation allowBlank="0" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning" errorTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" showErrorMessage="1" showInputMessage="1" sqref="G3:G4"/>
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Submodels:A&quot; or blank." errorStyle="warning" errorTitle="Submodel" prompt="Select a value from &quot;Submodels:A&quot; or blank." promptTitle="Submodel" showErrorMessage="1" showInputMessage="1" sqref="C3:C4" type="list">
+    <dataValidation sqref="H3:H4" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="G3:G4" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning"/>
+    <dataValidation sqref="C3:C4" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Submodel" error="Value must be a value from &quot;Submodels:A&quot; or blank." promptTitle="Submodel" prompt="Select a value from &quot;Submodels:A&quot; or blank." type="list" errorStyle="warning">
       <formula1>'!Submodels'!$A$3:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." errorStyle="warning" errorTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." promptTitle="Units" showErrorMessage="1" showInputMessage="1" sqref="D3:D4" type="list">
+    <dataValidation sqref="D3:D4" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." type="list" errorStyle="warning">
       <formula1>"1 / second"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;liter&quot;, &quot;gDCW&quot; or blank." errorStyle="warning" errorTitle="Cell size units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;liter&quot;, &quot;gDCW&quot; or blank." promptTitle="Cell size units" showErrorMessage="1" showInputMessage="1" sqref="E3:E4" type="list">
+    <dataValidation sqref="E3:E4" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Cell size units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;liter&quot;, &quot;gDCW&quot; or blank." promptTitle="Cell size units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;liter&quot;, &quot;gDCW&quot; or blank." type="list" errorStyle="warning">
       <formula1>"liter,gDCW"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B3:B4" type="textLength">
+    <dataValidation sqref="B3:B4" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="F3:F4"/>
-    <dataValidation allowBlank="0" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="Id" operator="between" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A3:A4" type="textLength">
+    <dataValidation sqref="F3:F4" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="A3:A4" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -15618,21 +15618,21 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="2"/>
+      <pane ySplit="2" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="L3" pane="bottomLeft" sqref="L3"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="12" min="1" style="21" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="13" style="21" width="9"/>
+    <col width="15.7083333333333" customWidth="1" style="21" min="1" max="12"/>
+    <col hidden="1" width="9" customWidth="1" style="21" min="13" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="21">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='DfbaObjSpecies'</t>
+          <t>!!ObjTables type='Date' id='DfbaObjSpecies'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -16979,35 +16979,35 @@
   </sheetData>
   <autoFilter ref="A2:L37"/>
   <dataValidations count="12">
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Model:0&quot; or blank." errorStyle="warning" errorTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." promptTitle="Model" showErrorMessage="1" showInputMessage="1" sqref="L3:L37" type="list"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning" errorTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" showErrorMessage="1" showInputMessage="1" sqref="I3:I37"/>
-    <dataValidation allowBlank="0" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning" errorTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" showErrorMessage="1" showInputMessage="1" sqref="H3:H37"/>
-    <dataValidation allowBlank="0" error="Value must be a float or blank." errorStyle="warning" errorTitle="Value" operator="between" prompt="Enter a float or blank." promptTitle="Value" showErrorMessage="1" showInputMessage="1" sqref="E3:E37" type="decimal">
+    <dataValidation sqref="L3:L37" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." type="list" errorStyle="warning"/>
+    <dataValidation sqref="I3:I37" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="H3:H37" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning"/>
+    <dataValidation sqref="E3:E37" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Value" error="Value must be a float or blank." promptTitle="Value" prompt="Enter a float or blank." type="decimal" errorStyle="warning" operator="between">
       <formula1>-1E+100</formula1>
       <formula2>1E+100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="Id" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A3:A37" type="textLength">
+    <dataValidation sqref="A3:A37" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="J3:J37" type="textLength">
+    <dataValidation sqref="J3:J37" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Species:A&quot;." errorStyle="warning" errorTitle="Species" prompt="Select a value from &quot;Species:A&quot;." promptTitle="Species" showErrorMessage="1" showInputMessage="1" sqref="D3:D37" type="list">
+    <dataValidation sqref="D3:D37" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Species" error="Value must be a value from &quot;Species:A&quot;." promptTitle="Species" prompt="Select a value from &quot;Species:A&quot;." type="list" errorStyle="warning">
       <formula1>'!Species'!$A$3:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="K3:K37"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="G3:G37"/>
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;dFBA objective reactions:A&quot;." errorStyle="warning" errorTitle="dFBA objective reaction" prompt="Select a value from &quot;dFBA objective reactions:A&quot;." promptTitle="dFBA objective reaction" showErrorMessage="1" showInputMessage="1" sqref="C3:C37" type="list">
+    <dataValidation sqref="K3:K37" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="G3:G37" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="C3:C37" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="dFBA objective reaction" error="Value must be a value from &quot;dFBA objective reactions:A&quot;." promptTitle="dFBA objective reaction" prompt="Select a value from &quot;dFBA objective reactions:A&quot;." type="list" errorStyle="warning">
       <formula1>'!dFBA objective reactions'!$A$3:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molar / second&quot;, &quot;mole / gDCW / second&quot; or blank." errorStyle="warning" errorTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molar / second&quot;, &quot;mole / gDCW / second&quot; or blank." promptTitle="Units" showErrorMessage="1" showInputMessage="1" sqref="F3:F37" type="list">
+    <dataValidation sqref="F3:F37" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molar / second&quot;, &quot;mole / gDCW / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molar / second&quot;, &quot;mole / gDCW / second&quot; or blank." type="list" errorStyle="warning">
       <formula1>"molar / second,mole / gDCW / second"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B3:B37" type="textLength">
+    <dataValidation sqref="B3:B37" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -17021,21 +17021,21 @@
   <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="2"/>
+      <pane ySplit="2" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="L3" pane="bottomLeft" sqref="L3"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="12" min="1" style="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="13" style="1" width="9"/>
+    <col width="15.7083333333333" customWidth="1" style="1" min="1" max="12"/>
+    <col hidden="1" width="9" customWidth="1" style="1" min="13" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="21">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='Parameter'</t>
+          <t>!!ObjTables type='Date' id='Parameter'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -20074,34 +20074,34 @@
   </sheetData>
   <autoFilter ref="A2:L97"/>
   <dataValidations count="12">
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Model:0&quot; or blank." errorStyle="warning" errorTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." promptTitle="Model" showErrorMessage="1" showInputMessage="1" sqref="L3:L97" type="list"/>
-    <dataValidation allowBlank="0" error="Value must be a float or blank." errorStyle="warning" errorTitle="Standard error" operator="greaterThanOrEqual" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." promptTitle="Standard error" showErrorMessage="1" showInputMessage="1" sqref="E3:E97" type="decimal">
+    <dataValidation sqref="L3:L97" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." type="list" errorStyle="warning"/>
+    <dataValidation sqref="E3:E97" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Standard error" error="Value must be a float or blank." promptTitle="Standard error" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." type="decimal" errorStyle="warning" operator="greaterThanOrEqual">
       <formula1>-1E-100</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="J3:J97" type="textLength">
+    <dataValidation sqref="J3:J97" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning" errorTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" showErrorMessage="1" showInputMessage="1" sqref="I3:I97"/>
-    <dataValidation allowBlank="0" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning" errorTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" showErrorMessage="1" showInputMessage="1" sqref="H3:H97"/>
-    <dataValidation allowBlank="0" error="Value must be a float or blank." errorStyle="warning" errorTitle="Value" operator="between" prompt="Enter a float or blank." promptTitle="Value" showErrorMessage="1" showInputMessage="1" sqref="D3:D97" type="decimal">
+    <dataValidation sqref="I3:I97" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="H3:H97" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning"/>
+    <dataValidation sqref="D3:D97" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Value" error="Value must be a float or blank." promptTitle="Value" prompt="Enter a float or blank." type="decimal" errorStyle="warning" operator="between">
       <formula1>-1E+100</formula1>
       <formula2>1E+100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." errorStyle="warning" errorTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." promptTitle="Units" showErrorMessage="1" showInputMessage="1" sqref="F3:F97"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;physical_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." errorStyle="warning" errorTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;physical_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." promptTitle="Type" showErrorMessage="1" showInputMessage="1" sqref="C3:C97" type="list">
+    <dataValidation sqref="F3:F97" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." errorStyle="warning"/>
+    <dataValidation sqref="C3:C97" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;physical_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;physical_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." type="list" errorStyle="warning">
       <formula1>"kinetic_constant,physical_constant,K_i,K_m,k_cat,v_max"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="G3:G97"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="K3:K97"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B3:B97" type="textLength">
+    <dataValidation sqref="G3:G97" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="K3:K97" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="B3:B97" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="Id" operator="between" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A3:A97" type="textLength">
+    <dataValidation sqref="A3:A97" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -20115,21 +20115,21 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="2"/>
+      <pane ySplit="2" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="J3" pane="bottomLeft" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="3"/>
   <cols>
-    <col customWidth="1" max="10" min="1" style="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="11" style="1" width="9"/>
+    <col width="15.7083333333333" customWidth="1" style="1" min="1" max="10"/>
+    <col hidden="1" width="9" customWidth="1" style="1" min="11" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="21">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='StopCondition'</t>
+          <t>!!ObjTables type='Date' id='StopCondition'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -20244,27 +20244,27 @@
   </sheetData>
   <autoFilter ref="A2:J4"/>
   <dataValidations count="10">
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Model:0&quot; or blank." errorStyle="warning" errorTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." promptTitle="Model" showErrorMessage="1" showInputMessage="1" sqref="J3:J4" type="list"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="H3:H4" type="textLength">
+    <dataValidation sqref="J3:J4" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." type="list" errorStyle="warning"/>
+    <dataValidation sqref="H3:H4" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning" errorTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" showErrorMessage="1" showInputMessage="1" sqref="G3:G4"/>
-    <dataValidation allowBlank="0" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning" errorTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" showErrorMessage="1" showInputMessage="1" sqref="F3:F4"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="I3:I4"/>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;dimensionless&quot; or blank." errorStyle="warning" errorTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;dimensionless&quot; or blank." promptTitle="Units" showErrorMessage="1" showInputMessage="1" sqref="D3:D4" type="list">
+    <dataValidation sqref="G3:G4" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="F3:F4" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning"/>
+    <dataValidation sqref="I3:I4" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="D3:D4" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;dimensionless&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;dimensionless&quot; or blank." type="list" errorStyle="warning">
       <formula1>"dimensionless"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." errorStyle="warning" errorTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" showErrorMessage="1" showInputMessage="1" sqref="C3:C4"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B3:B4" type="textLength">
+    <dataValidation sqref="C3:C4" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." errorStyle="warning"/>
+    <dataValidation sqref="B3:B4" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="E3:E4"/>
-    <dataValidation allowBlank="0" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="Id" operator="between" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A3:A4" type="textLength">
+    <dataValidation sqref="E3:E4" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="A3:A4" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -20278,21 +20278,21 @@
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView topLeftCell="O1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="3"/>
+      <pane ySplit="3" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="X4" pane="bottomLeft" sqref="X4"/>
+      <selection pane="bottomLeft" activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="24" min="1" style="21" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="25" style="21" width="9"/>
+    <col width="15.7083333333333" customWidth="1" style="21" min="1" max="24"/>
+    <col hidden="1" width="9" customWidth="1" style="21" min="25" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="21">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='Observation'</t>
+          <t>!!ObjTables type='Date' id='Observation'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -20883,69 +20883,69 @@
     <mergeCell ref="S2:T2"/>
   </mergeCells>
   <dataValidations count="22">
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="V4:V11" type="textLength">
+    <dataValidation sqref="V4:V11" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="W4:W11"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="U4:U11"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Version" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Version" showErrorMessage="1" showInputMessage="1" sqref="R4:R11 T4:T11" type="textLength">
+    <dataValidation sqref="W4:W11" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="U4:U11" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="R4:R11 T4:T11" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Version" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Version" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Experiment design" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Experiment design" showErrorMessage="1" showInputMessage="1" sqref="P4:P11" type="textLength">
+    <dataValidation sqref="P4:P11" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Experiment design" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Experiment design" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Experiment type" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Experiment type" showErrorMessage="1" showInputMessage="1" sqref="O4:O11" type="textLength">
+    <dataValidation sqref="O4:O11" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Experiment type" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Experiment type" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Model:0&quot; or blank." errorStyle="warning" errorTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." promptTitle="Model" showErrorMessage="1" showInputMessage="1" sqref="X4:X11" type="list"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Condition" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Condition" showErrorMessage="1" showInputMessage="1" sqref="N4:N11" type="textLength">
+    <dataValidation sqref="X4:X11" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." type="list" errorStyle="warning"/>
+    <dataValidation sqref="N4:N11" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Condition" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Condition" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Growth media" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Growth media" showErrorMessage="1" showInputMessage="1" sqref="M4:M11" type="textLength">
+    <dataValidation sqref="M4:M11" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Growth media" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Growth media" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of WC ontology terms &quot;computational_observation&quot;, &quot;experimental_observation&quot;, &quot;theoretical_observation&quot; or blank." errorStyle="warning" errorTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;computational_observation&quot;, &quot;experimental_observation&quot;, &quot;theoretical_observation&quot; or blank." promptTitle="Type" showErrorMessage="1" showInputMessage="1" sqref="F4:F11" type="list">
+    <dataValidation sqref="F4:F11" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;computational_observation&quot;, &quot;experimental_observation&quot;, &quot;theoretical_observation&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;computational_observation&quot;, &quot;experimental_observation&quot;, &quot;theoretical_observation&quot; or blank." type="list" errorStyle="warning">
       <formula1>"computational_observation,experimental_observation,theoretical_observation"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a float or blank." errorStyle="warning" errorTitle="pH" operator="between" prompt="Enter a float or blank." promptTitle="pH" showErrorMessage="1" showInputMessage="1" sqref="K4:K11" type="decimal">
+    <dataValidation sqref="K4:K11" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="pH" error="Value must be a float or blank." promptTitle="pH" prompt="Enter a float or blank." type="decimal" errorStyle="warning" operator="between">
       <formula1>-1E+100</formula1>
       <formula2>1E+100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="Q4:Q11 S4:S11" type="textLength">
+    <dataValidation sqref="Q4:Q11 S4:S11" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a float or blank." errorStyle="warning" errorTitle="Temperature" operator="between" prompt="Enter a float or blank." promptTitle="Temperature" showErrorMessage="1" showInputMessage="1" sqref="I4:I11" type="decimal">
+    <dataValidation sqref="I4:I11" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Temperature" error="Value must be a float or blank." promptTitle="Temperature" prompt="Enter a float or blank." type="decimal" errorStyle="warning" operator="between">
       <formula1>-1E+100</formula1>
       <formula2>1E+100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;dimensionless&quot; or blank." errorStyle="warning" errorTitle="pH units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;dimensionless&quot; or blank." promptTitle="pH units" showErrorMessage="1" showInputMessage="1" sqref="L4:L11" type="list">
+    <dataValidation sqref="L4:L11" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="pH units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;dimensionless&quot; or blank." promptTitle="pH units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;dimensionless&quot; or blank." type="list" errorStyle="warning">
       <formula1>"dimensionless"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;degC&quot; or blank." errorStyle="warning" errorTitle="Temperature units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;degC&quot; or blank." promptTitle="Temperature units" showErrorMessage="1" showInputMessage="1" sqref="J4:J11" type="list">
+    <dataValidation sqref="J4:J11" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Temperature units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;degC&quot; or blank." promptTitle="Temperature units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;degC&quot; or blank." type="list" errorStyle="warning">
       <formula1>"degC"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Taxon" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Taxon" showErrorMessage="1" showInputMessage="1" sqref="G4:G11" type="textLength">
+    <dataValidation sqref="G4:G11" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Taxon" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Taxon" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Variant" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Variant" showErrorMessage="1" showInputMessage="1" sqref="H4:H11" type="textLength">
+    <dataValidation sqref="H4:H11" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Variant" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Variant" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Value" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Value" showErrorMessage="1" showInputMessage="1" sqref="C4:C11" type="textLength">
+    <dataValidation sqref="C4:C11" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Value" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Value" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Standard error" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Standard error" showErrorMessage="1" showInputMessage="1" sqref="D4:D11" type="textLength">
+    <dataValidation sqref="D4:D11" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Standard error" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Standard error" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." errorStyle="warning" errorTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." promptTitle="Units" showErrorMessage="1" showInputMessage="1" sqref="E4:E11"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B4:B11" type="textLength">
+    <dataValidation sqref="E4:E11" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." errorStyle="warning"/>
+    <dataValidation sqref="B4:B11" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="Id" operator="between" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A4:A11" type="textLength">
+    <dataValidation sqref="A4:A11" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -20959,21 +20959,21 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="B13" pane="topRight" sqref="B13"/>
+      <selection pane="topRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="21" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="3" style="21" width="9"/>
+    <col width="15.7083333333333" customWidth="1" style="21" min="1" max="2"/>
+    <col hidden="1" width="9" customWidth="1" style="21" min="3" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="21">
       <c r="A1" s="20" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='Model'</t>
+          <t>!!ObjTables type='Date' id='Model'</t>
         </is>
       </c>
     </row>
@@ -21107,41 +21107,41 @@
     </row>
   </sheetData>
   <dataValidations count="12">
-    <dataValidation allowBlank="0" error="Value must be a date and time." errorStyle="warning" errorTitle="Updated" operator="between" prompt="Enter a date and time." promptTitle="Updated" showErrorMessage="1" showInputMessage="1" sqref="B13" type="date">
+    <dataValidation sqref="B13" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Updated" error="Value must be a date and time." promptTitle="Updated" prompt="Enter a date and time." type="date" errorStyle="warning" operator="between">
       <formula1>0</formula1>
       <formula2>-328717</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="B11" type="textLength">
+    <dataValidation sqref="B11" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Revision" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Revision" showErrorMessage="1" showInputMessage="1" sqref="B7" type="textLength">
+    <dataValidation sqref="B7" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Revision" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Revision" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string." errorStyle="warning" errorTitle="wc_lang version" prompt="Enter a string." promptTitle="wc_lang version" showErrorMessage="1" showInputMessage="1" sqref="B8"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="B10"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Branch" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Branch" showErrorMessage="1" showInputMessage="1" sqref="B6" type="textLength">
+    <dataValidation sqref="B8" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="wc_lang version" error="Value must be a string." promptTitle="wc_lang version" prompt="Enter a string." errorStyle="warning"/>
+    <dataValidation sqref="B10" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="B6" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Branch" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Branch" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string." errorStyle="warning" errorTitle="Version" prompt="Enter a string." promptTitle="Version" showErrorMessage="1" showInputMessage="1" sqref="B4"/>
-    <dataValidation allowBlank="0" error="Value must be a date and time." errorStyle="warning" errorTitle="Created" operator="between" prompt="Enter a date and time." promptTitle="Created" showErrorMessage="1" showInputMessage="1" sqref="B12" type="date">
+    <dataValidation sqref="B4" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Version" error="Value must be a string." promptTitle="Version" prompt="Enter a string." errorStyle="warning"/>
+    <dataValidation sqref="B12" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Created" error="Value must be a date and time." promptTitle="Created" prompt="Enter a date and time." type="date" errorStyle="warning" operator="between">
       <formula1>0</formula1>
       <formula2>-328717</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B3" type="textLength">
+    <dataValidation sqref="B3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;second&quot; or blank." errorStyle="warning" errorTitle="Time units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;second&quot; or blank." promptTitle="Time units" showErrorMessage="1" showInputMessage="1" sqref="B9" type="list">
+    <dataValidation sqref="B9" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Time units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;second&quot; or blank." promptTitle="Time units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;second&quot; or blank." type="list" errorStyle="warning">
       <formula1>"second"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Enter a valid URL&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 65535 characters." errorStyle="warning" errorTitle="URL" operator="lessThanOrEqual" prompt="Enter a valid URL&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 65535 characters." promptTitle="URL" showErrorMessage="1" showInputMessage="1" sqref="B5" type="textLength">
+    <dataValidation sqref="B5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="URL" error="Enter a valid URL&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 65535 characters." promptTitle="URL" prompt="Enter a valid URL&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 65535 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>65535</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="Id" operator="between" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="B2" type="textLength">
+    <dataValidation sqref="B2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -21154,21 +21154,21 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="2"/>
+      <pane ySplit="2" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="G3" pane="bottomLeft" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col customWidth="1" max="7" min="1" style="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="8" style="1" width="9"/>
+    <col width="15.7083333333333" customWidth="1" style="1" min="1" max="7"/>
+    <col hidden="1" width="9" customWidth="1" style="1" min="8" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="21">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='ObservationSet'</t>
+          <t>!!ObjTables type='Date' id='ObservationSet'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -21284,22 +21284,22 @@
   </sheetData>
   <autoFilter ref="A2:G5"/>
   <dataValidations count="7">
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Model:0&quot; or blank." errorStyle="warning" errorTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." promptTitle="Model" showErrorMessage="1" showInputMessage="1" sqref="G3:G5" type="list"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="F3:F5"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="E3:E5" type="textLength">
+    <dataValidation sqref="G3:G5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." type="list" errorStyle="warning"/>
+    <dataValidation sqref="F3:F5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="E3:E5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Observations:A&quot; or blank." errorStyle="warning" errorTitle="Observations" prompt="Enter a comma-separated list of values from &quot;Observations:A&quot; or blank." promptTitle="Observations" showErrorMessage="1" showInputMessage="1" sqref="C3:C5"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B3:B5" type="textLength">
+    <dataValidation sqref="C3:C5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Observations" error="Value must be a comma-separated list of values from &quot;Observations:A&quot; or blank." promptTitle="Observations" prompt="Enter a comma-separated list of values from &quot;Observations:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="B3:B5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="D3:D5"/>
-    <dataValidation allowBlank="0" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="Id" operator="between" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A3:A5" type="textLength">
+    <dataValidation sqref="D3:D5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="A3:A5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -21313,21 +21313,21 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="3"/>
+      <pane ySplit="3" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="O4" pane="bottomLeft" sqref="O4"/>
+      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col customWidth="1" max="15" min="1" style="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="16" style="1" width="9"/>
+    <col width="15.7083333333333" customWidth="1" style="1" min="1" max="15"/>
+    <col hidden="1" width="9" customWidth="1" style="1" min="16" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="21">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='Conclusion'</t>
+          <t>!!ObjTables type='Date' id='Conclusion'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -21537,43 +21537,43 @@
     <mergeCell ref="G2:H2"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Model:0&quot; or blank." errorStyle="warning" errorTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." promptTitle="Model" showErrorMessage="1" showInputMessage="1" sqref="O4:O5" type="list"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Authors:A&quot; or blank." errorStyle="warning" errorTitle="Authors" prompt="Enter a comma-separated list of values from &quot;Authors:A&quot; or blank." promptTitle="Authors" showErrorMessage="1" showInputMessage="1" sqref="M4:M5"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="K4:K5" type="textLength">
+    <dataValidation sqref="O4:O5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." type="list" errorStyle="warning"/>
+    <dataValidation sqref="M4:M5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Authors" error="Value must be a comma-separated list of values from &quot;Authors:A&quot; or blank." promptTitle="Authors" prompt="Enter a comma-separated list of values from &quot;Authors:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="K4:K5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="G4:G5" type="textLength">
+    <dataValidation sqref="G4:G5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning" errorTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" showErrorMessage="1" showInputMessage="1" sqref="J4:J5"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Version" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Version" showErrorMessage="1" showInputMessage="1" sqref="H4:H5" type="textLength">
+    <dataValidation sqref="J4:J5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning"/>
+    <dataValidation sqref="H4:H5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Version" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Version" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Value" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Value" showErrorMessage="1" showInputMessage="1" sqref="C4:C5" type="textLength">
+    <dataValidation sqref="C4:C5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Value" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Value" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Standard error" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Standard error" showErrorMessage="1" showInputMessage="1" sqref="D4:D5" type="textLength">
+    <dataValidation sqref="D4:D5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Standard error" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Standard error" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of WC ontology terms &quot;approximation&quot;, &quot;assumption&quot;, &quot;computation&quot;, &quot;decision&quot;, &quot;coarse_graining&quot; or blank." errorStyle="warning" errorTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;approximation&quot;, &quot;assumption&quot;, &quot;computation&quot;, &quot;decision&quot;, &quot;coarse_graining&quot; or blank." promptTitle="Type" showErrorMessage="1" showInputMessage="1" sqref="F4:F5" type="list">
+    <dataValidation sqref="F4:F5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;approximation&quot;, &quot;assumption&quot;, &quot;computation&quot;, &quot;decision&quot;, &quot;coarse_graining&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;approximation&quot;, &quot;assumption&quot;, &quot;computation&quot;, &quot;decision&quot;, &quot;coarse_graining&quot; or blank." type="list" errorStyle="warning">
       <formula1>"approximation,assumption,computation,decision,coarse_graining"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." errorStyle="warning" errorTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." promptTitle="Units" showErrorMessage="1" showInputMessage="1" sqref="E4:E5"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B4:B5" type="textLength">
+    <dataValidation sqref="E4:E5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." errorStyle="warning"/>
+    <dataValidation sqref="B4:B5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a date and time." errorStyle="warning" errorTitle="Date" operator="between" prompt="Enter a date and time." promptTitle="Date" showErrorMessage="1" showInputMessage="1" sqref="N4:N5" type="date">
+    <dataValidation sqref="N4:N5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Date" error="Value must be a date and time." promptTitle="Date" prompt="Enter a date and time." type="date" errorStyle="warning" operator="between">
       <formula1>0</formula1>
       <formula2>-328717</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="L4:L5"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="I4:I5"/>
-    <dataValidation allowBlank="0" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="Id" operator="between" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A4:A5" type="textLength">
+    <dataValidation sqref="L4:L5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="I4:I5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="A4:A5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -21587,21 +21587,21 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="2"/>
+      <pane ySplit="2" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="O21" pane="bottomLeft" sqref="O21"/>
+      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="19" min="1" style="21" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="20" style="21" width="9"/>
+    <col width="15.7083333333333" customWidth="1" style="21" min="1" max="19"/>
+    <col hidden="1" width="9" customWidth="1" style="21" min="20" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="21">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='Reference'</t>
+          <t>!!ObjTables type='Date' id='Reference'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -22851,62 +22851,62 @@
   </sheetData>
   <autoFilter ref="A2:S23"/>
   <dataValidations count="19">
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="R3:R23" type="textLength">
+    <dataValidation sqref="R3:R23" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="Q3:Q23"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Edition" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Edition" showErrorMessage="1" showInputMessage="1" sqref="N3:N23" type="textLength">
+    <dataValidation sqref="Q3:Q23" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="N3:N23" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Edition" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Edition" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Issue" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Issue" showErrorMessage="1" showInputMessage="1" sqref="M3:M23" type="textLength">
+    <dataValidation sqref="M3:M23" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Issue" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Issue" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Chapter" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Chapter" showErrorMessage="1" showInputMessage="1" sqref="O3:O23" type="textLength">
+    <dataValidation sqref="O3:O23" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Chapter" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Chapter" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Series" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Series" showErrorMessage="1" showInputMessage="1" sqref="J3:J23" type="textLength">
+    <dataValidation sqref="J3:J23" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Series" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Series" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Publication" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Publication" showErrorMessage="1" showInputMessage="1" sqref="H3:H23" type="textLength">
+    <dataValidation sqref="H3:H23" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Publication" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Publication" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Model:0&quot; or blank." errorStyle="warning" errorTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." promptTitle="Model" showErrorMessage="1" showInputMessage="1" sqref="S3:S23" type="list"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of WC ontology terms &quot;article&quot;, &quot;book&quot;, &quot;proceedings&quot;, &quot;thesis&quot;, &quot;website&quot; or blank." errorStyle="warning" errorTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;article&quot;, &quot;book&quot;, &quot;proceedings&quot;, &quot;thesis&quot;, &quot;website&quot; or blank." promptTitle="Type" showErrorMessage="1" showInputMessage="1" sqref="G3:G23" type="list">
+    <dataValidation sqref="S3:S23" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." type="list" errorStyle="warning"/>
+    <dataValidation sqref="G3:G23" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;article&quot;, &quot;book&quot;, &quot;proceedings&quot;, &quot;thesis&quot;, &quot;website&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;article&quot;, &quot;book&quot;, &quot;proceedings&quot;, &quot;thesis&quot;, &quot;website&quot; or blank." type="list" errorStyle="warning">
       <formula1>"article,book,proceedings,thesis,website"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Pages" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Pages" showErrorMessage="1" showInputMessage="1" sqref="P3:P23" type="textLength">
+    <dataValidation sqref="P3:P23" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Pages" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Pages" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Author" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Author" showErrorMessage="1" showInputMessage="1" sqref="D3:D23" type="textLength">
+    <dataValidation sqref="D3:D23" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Author" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Author" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Title" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Title" showErrorMessage="1" showInputMessage="1" sqref="C3:C23" type="textLength">
+    <dataValidation sqref="C3:C23" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Title" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Title" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Editor" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Editor" showErrorMessage="1" showInputMessage="1" sqref="E3:E23" type="textLength">
+    <dataValidation sqref="E3:E23" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Editor" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Editor" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Number" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Number" showErrorMessage="1" showInputMessage="1" sqref="L3:L23" type="textLength">
+    <dataValidation sqref="L3:L23" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Number" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Number" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Publisher" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Publisher" showErrorMessage="1" showInputMessage="1" sqref="I3:I23" type="textLength">
+    <dataValidation sqref="I3:I23" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Publisher" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Publisher" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be an integer." errorStyle="warning" errorTitle="Year" operator="greaterThanOrEqual" prompt="Enter an integer.&#10;&#10;Value must be positive." promptTitle="Year" showErrorMessage="1" showInputMessage="1" sqref="F3:F23" type="whole">
+    <dataValidation sqref="F3:F23" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Year" error="Value must be an integer." promptTitle="Year" prompt="Enter an integer.&#10;&#10;Value must be positive." type="whole" errorStyle="warning" operator="greaterThanOrEqual">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Volume" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Volume" showErrorMessage="1" showInputMessage="1" sqref="K3:K23" type="textLength">
+    <dataValidation sqref="K3:K23" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Volume" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Volume" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B3:B23" type="textLength">
+    <dataValidation sqref="B3:B23" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="Id" operator="between" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A3:A23" type="textLength">
+    <dataValidation sqref="A3:A23" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -22920,21 +22920,21 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="2"/>
+      <pane ySplit="2" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="M2" pane="bottomLeft" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" max="13" min="1" style="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="14" style="1" width="9"/>
+    <col width="15.7083333333333" customWidth="1" style="1" min="1" max="13"/>
+    <col hidden="1" width="9" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="21">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='Author'</t>
+          <t>!!ObjTables type='Date' id='Author'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -23019,47 +23019,47 @@
   </sheetData>
   <autoFilter ref="A2:M2"/>
   <dataValidations count="13">
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="L3" type="textLength">
+    <dataValidation sqref="L3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Enter a valid URL&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 65535 characters." errorStyle="warning" errorTitle="Website" operator="lessThanOrEqual" prompt="Enter a valid URL&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 65535 characters." promptTitle="Website" showErrorMessage="1" showInputMessage="1" sqref="I3" type="textLength">
+    <dataValidation sqref="I3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Website" error="Enter a valid URL&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 65535 characters." promptTitle="Website" prompt="Enter a valid URL&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 65535 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>65535</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be between 1 and 255 characters." errorStyle="warning" errorTitle="Last name" operator="between" prompt="Enter a string.&#10;&#10;Value must be between 1 and 255 characters." promptTitle="Last name" showErrorMessage="1" showInputMessage="1" sqref="C3" type="textLength">
+    <dataValidation sqref="C3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Last name" error="Value must be a string.&#10;&#10;Value must be between 1 and 255 characters." promptTitle="Last name" prompt="Enter a string.&#10;&#10;Value must be between 1 and 255 characters." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Organization" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Organization" showErrorMessage="1" showInputMessage="1" sqref="G3" type="textLength">
+    <dataValidation sqref="G3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Organization" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Organization" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Enter a valid email address&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Email" operator="lessThanOrEqual" prompt="Enter a valid email address&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Email" showErrorMessage="1" showInputMessage="1" sqref="H3" type="textLength">
+    <dataValidation sqref="H3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Email" error="Enter a valid email address&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Email" prompt="Enter a valid email address&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Title" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Title" showErrorMessage="1" showInputMessage="1" sqref="F3" type="textLength">
+    <dataValidation sqref="F3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Title" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Title" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be between 1 and 255 characters." errorStyle="warning" errorTitle="Middle name" operator="between" prompt="Enter a string.&#10;&#10;Value must be between 1 and 255 characters." promptTitle="Middle name" showErrorMessage="1" showInputMessage="1" sqref="E3" type="textLength">
+    <dataValidation sqref="E3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Middle name" error="Value must be a string.&#10;&#10;Value must be between 1 and 255 characters." promptTitle="Middle name" prompt="Enter a string.&#10;&#10;Value must be between 1 and 255 characters." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be between 1 and 255 characters." errorStyle="warning" errorTitle="Name" operator="between" prompt="Enter a string.&#10;&#10;Value must be between 1 and 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B3" type="textLength">
+    <dataValidation sqref="B3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be between 1 and 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be between 1 and 255 characters." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Model:0&quot; or blank." errorStyle="warning" errorTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." promptTitle="Model" showErrorMessage="1" showInputMessage="1" sqref="M2:M3" type="list"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="First name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="First name" showErrorMessage="1" showInputMessage="1" sqref="D3" type="textLength">
+    <dataValidation sqref="M2:M3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." type="list" errorStyle="warning"/>
+    <dataValidation sqref="D3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="First name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="First name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Address" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Address" showErrorMessage="1" showInputMessage="1" sqref="J3" type="textLength">
+    <dataValidation sqref="J3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Address" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Address" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="K3"/>
-    <dataValidation allowBlank="0" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="Id" operator="between" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A3" type="textLength">
+    <dataValidation sqref="K3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="A3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -23073,21 +23073,21 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="2"/>
+      <pane ySplit="2" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="R3" pane="bottomLeft" sqref="R3"/>
+      <selection pane="bottomLeft" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" max="18" min="1" style="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="19" style="1" width="9"/>
+    <col width="15.7083333333333" customWidth="1" style="1" min="1" max="18"/>
+    <col hidden="1" width="9" customWidth="1" style="1" min="19" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="21">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='Change'</t>
+          <t>!!ObjTables type='Date' id='Change'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -23202,53 +23202,53 @@
   </sheetData>
   <autoFilter ref="A2:R2"/>
   <dataValidations count="18">
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning" errorTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" showErrorMessage="1" showInputMessage="1" sqref="M3"/>
-    <dataValidation allowBlank="0" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning" errorTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" showErrorMessage="1" showInputMessage="1" sqref="L3"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of WC ontology terms &quot;correct_intention_provenance&quot;, &quot;elaborate_intention_provenance&quot;, &quot;expand_intention_provenance&quot;, &quot;simplify_intention_provenance&quot; or blank." errorStyle="warning" errorTitle="Intention type" prompt="Enter a comma-separated list of WC ontology terms &quot;correct_intention_provenance&quot;, &quot;elaborate_intention_provenance&quot;, &quot;expand_intention_provenance&quot;, &quot;simplify_intention_provenance&quot; or blank." promptTitle="Intention type" showErrorMessage="1" showInputMessage="1" sqref="J3" type="list">
+    <dataValidation sqref="M3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="L3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning"/>
+    <dataValidation sqref="J3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Intention type" error="Value must be a comma-separated list of WC ontology terms &quot;correct_intention_provenance&quot;, &quot;elaborate_intention_provenance&quot;, &quot;expand_intention_provenance&quot;, &quot;simplify_intention_provenance&quot; or blank." promptTitle="Intention type" prompt="Enter a comma-separated list of WC ontology terms &quot;correct_intention_provenance&quot;, &quot;elaborate_intention_provenance&quot;, &quot;expand_intention_provenance&quot;, &quot;simplify_intention_provenance&quot; or blank." type="list" errorStyle="warning">
       <formula1>"correct_intention_provenance,elaborate_intention_provenance,expand_intention_provenance,simplify_intention_provenance"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Intention" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Intention" showErrorMessage="1" showInputMessage="1" sqref="I3" type="textLength">
+    <dataValidation sqref="I3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Intention" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Intention" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="Id" operator="between" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A3" type="textLength">
+    <dataValidation sqref="A3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of WC ontology terms &quot;add_metadata_reason_provenance&quot;, &quot;implementation_error_reason_provenance&quot;, &quot;incorrect_interpretation_reason_provenance&quot;, &quot;migrate_version_reason_provenance&quot;, &quot;new_goal_reason_provenance&quot;, &quot;new ..." errorStyle="warning" errorTitle="Reason type" prompt="Enter a comma-separated list of WC ontology terms &quot;add_metadata_reason_provenance&quot;, &quot;implementation_error_reason_provenance&quot;, &quot;incorrect_interpretation_reason_provenance&quot;, &quot;migrate_version_reason_provenance&quot;, &quot;new_goal_reason_provenance&quot;, &quot;new_knowled ..." promptTitle="Reason type" showErrorMessage="1" showInputMessage="1" sqref="H3" type="list">
+    <dataValidation sqref="H3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Reason type" error="Value must be a comma-separated list of WC ontology terms &quot;add_metadata_reason_provenance&quot;, &quot;implementation_error_reason_provenance&quot;, &quot;incorrect_interpretation_reason_provenance&quot;, &quot;migrate_version_reason_provenance&quot;, &quot;new_goal_reason_provenance&quot;, &quot;new ..." promptTitle="Reason type" prompt="Enter a comma-separated list of WC ontology terms &quot;add_metadata_reason_provenance&quot;, &quot;implementation_error_reason_provenance&quot;, &quot;incorrect_interpretation_reason_provenance&quot;, &quot;migrate_version_reason_provenance&quot;, &quot;new_goal_reason_provenance&quot;, &quot;new_knowled ..." type="list" errorStyle="warning">
       <formula1>"add_metadata_reason_provenance,implementation_error_reason_provenance,incorrect_interpretation_reason_provenance,migrate_version_reason_provenance,new_goal_reason_provenance,new_knowledge_reason_provenance"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Authors:A&quot; or blank." errorStyle="warning" errorTitle="Authors" prompt="Enter a comma-separated list of values from &quot;Authors:A&quot; or blank." promptTitle="Authors" showErrorMessage="1" showInputMessage="1" sqref="P3"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Reason" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Reason" showErrorMessage="1" showInputMessage="1" sqref="G3" type="textLength">
+    <dataValidation sqref="P3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Authors" error="Value must be a comma-separated list of values from &quot;Authors:A&quot; or blank." promptTitle="Authors" prompt="Enter a comma-separated list of values from &quot;Authors:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="G3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Reason" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Reason" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of WC ontology terms &quot;data_target_provenance&quot;, &quot;encoding_target_provenance&quot;, &quot;metadata_target_provenance&quot;, &quot;model_target_provenance&quot;, &quot;model_dynamics_target_provenance&quot;, &quot;model_initial_conditions_target_provenance&quot; ..." errorStyle="warning" errorTitle="Target type" prompt="Enter a comma-separated list of WC ontology terms &quot;data_target_provenance&quot;, &quot;encoding_target_provenance&quot;, &quot;metadata_target_provenance&quot;, &quot;model_target_provenance&quot;, &quot;model_dynamics_target_provenance&quot;, &quot;model_initial_conditions_target_provenance&quot; or blank." promptTitle="Target type" showErrorMessage="1" showInputMessage="1" sqref="F3" type="list">
+    <dataValidation sqref="F3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Target type" error="Value must be a comma-separated list of WC ontology terms &quot;data_target_provenance&quot;, &quot;encoding_target_provenance&quot;, &quot;metadata_target_provenance&quot;, &quot;model_target_provenance&quot;, &quot;model_dynamics_target_provenance&quot;, &quot;model_initial_conditions_target_provenance&quot; ..." promptTitle="Target type" prompt="Enter a comma-separated list of WC ontology terms &quot;data_target_provenance&quot;, &quot;encoding_target_provenance&quot;, &quot;metadata_target_provenance&quot;, &quot;model_target_provenance&quot;, &quot;model_dynamics_target_provenance&quot;, &quot;model_initial_conditions_target_provenance&quot; or blank." type="list" errorStyle="warning">
       <formula1>"data_target_provenance,encoding_target_provenance,metadata_target_provenance,model_target_provenance,model_dynamics_target_provenance,model_initial_conditions_target_provenance"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be between 1 and 255 characters." errorStyle="warning" errorTitle="Name" operator="between" prompt="Enter a string.&#10;&#10;Value must be between 1 and 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B3" type="textLength">
+    <dataValidation sqref="B3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be between 1 and 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be between 1 and 255 characters." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Model:0&quot; or blank." errorStyle="warning" errorTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." promptTitle="Model" showErrorMessage="1" showInputMessage="1" sqref="R2:R3" type="list"/>
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Submodels:A&quot; or blank." errorStyle="warning" errorTitle="Target submodel" prompt="Select a value from &quot;Submodels:A&quot; or blank." promptTitle="Target submodel" showErrorMessage="1" showInputMessage="1" sqref="E3" type="list">
+    <dataValidation sqref="R2:R3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." type="list" errorStyle="warning"/>
+    <dataValidation sqref="E3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Target submodel" error="Value must be a value from &quot;Submodels:A&quot; or blank." promptTitle="Target submodel" prompt="Select a value from &quot;Submodels:A&quot; or blank." type="list" errorStyle="warning">
       <formula1>'!Submodels'!$A$3:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of WC ontology terms &quot;copy_change_provenance&quot;, &quot;deletion_change_provenance&quot;, &quot;insertion_change_provenance&quot;, &quot;merge_change_provenance&quot;, &quot;move_change_provenance&quot;, &quot;revert_change_provenance&quot;, &quot;update_change_provenance ..." errorStyle="warning" errorTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;copy_change_provenance&quot;, &quot;deletion_change_provenance&quot;, &quot;insertion_change_provenance&quot;, &quot;merge_change_provenance&quot;, &quot;move_change_provenance&quot;, &quot;revert_change_provenance&quot;, &quot;update_change_provenance&quot; or blank." promptTitle="Type" showErrorMessage="1" showInputMessage="1" sqref="C3" type="list">
+    <dataValidation sqref="C3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;copy_change_provenance&quot;, &quot;deletion_change_provenance&quot;, &quot;insertion_change_provenance&quot;, &quot;merge_change_provenance&quot;, &quot;move_change_provenance&quot;, &quot;revert_change_provenance&quot;, &quot;update_change_provenance ..." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;copy_change_provenance&quot;, &quot;deletion_change_provenance&quot;, &quot;insertion_change_provenance&quot;, &quot;merge_change_provenance&quot;, &quot;move_change_provenance&quot;, &quot;revert_change_provenance&quot;, &quot;update_change_provenance&quot; or blank." type="list" errorStyle="warning">
       <formula1>"copy_change_provenance,deletion_change_provenance,insertion_change_provenance,merge_change_provenance,move_change_provenance,revert_change_provenance,update_change_provenance"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="N3" type="textLength">
+    <dataValidation sqref="N3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Target" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Target" showErrorMessage="1" showInputMessage="1" sqref="D3" type="textLength">
+    <dataValidation sqref="D3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Target" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Target" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a date and time." errorStyle="warning" errorTitle="Date" operator="between" prompt="Enter a date and time." promptTitle="Date" showErrorMessage="1" showInputMessage="1" sqref="Q3" type="date">
+    <dataValidation sqref="Q3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Date" error="Value must be a date and time." promptTitle="Date" prompt="Enter a date and time." type="date" errorStyle="warning" operator="between">
       <formula1>0</formula1>
       <formula2>-328717</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="O3"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="K3"/>
+    <dataValidation sqref="O3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="K3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -23262,25 +23262,25 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A9" pane="topRight" sqref="A9"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="21" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="3" style="21" width="9"/>
+    <col width="15.7083333333333" customWidth="1" style="21" min="1" max="2"/>
+    <col hidden="1" width="9" customWidth="1" style="21" min="3" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="21">
       <c r="A1" s="20" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='Taxon'</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" r="2" s="1">
+          <t>!!ObjTables type='Date' id='Taxon'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" customFormat="1" s="1">
       <c r="A2" s="18" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -23350,21 +23350,21 @@
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Model:0&quot; or blank." errorStyle="warning" errorTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." promptTitle="Model" showErrorMessage="1" showInputMessage="1" sqref="B8" type="list"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="B7"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="Id" prompt="Enter a string.&#10;&#10;Value must be unique." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="B2"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="B6" type="textLength">
+    <dataValidation sqref="B8" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." type="list" errorStyle="warning"/>
+    <dataValidation sqref="B7" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="B2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be unique." errorStyle="warning"/>
+    <dataValidation sqref="B6" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B3" type="textLength">
+    <dataValidation sqref="B3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="B5"/>
-    <dataValidation allowBlank="0" error="Value must be one of &quot;domain&quot;, &quot;kingdom&quot;, &quot;phylum&quot;, &quot;classis&quot;, &quot;order&quot;, &quot;family&quot;, &quot;tribe&quot;, &quot;genus&quot;, &quot;species&quot;, &quot;variety&quot;." errorStyle="warning" errorTitle="Rank" prompt="Select one of &quot;domain&quot;, &quot;kingdom&quot;, &quot;phylum&quot;, &quot;classis&quot;, &quot;order&quot;, &quot;family&quot;, &quot;tribe&quot;, &quot;genus&quot;, &quot;species&quot;, &quot;variety&quot;." promptTitle="Rank" showErrorMessage="1" showInputMessage="1" sqref="B4" type="list">
+    <dataValidation sqref="B5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="B4" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Rank" error="Value must be one of &quot;domain&quot;, &quot;kingdom&quot;, &quot;phylum&quot;, &quot;classis&quot;, &quot;order&quot;, &quot;family&quot;, &quot;tribe&quot;, &quot;genus&quot;, &quot;species&quot;, &quot;variety&quot;." promptTitle="Rank" prompt="Select one of &quot;domain&quot;, &quot;kingdom&quot;, &quot;phylum&quot;, &quot;classis&quot;, &quot;order&quot;, &quot;family&quot;, &quot;tribe&quot;, &quot;genus&quot;, &quot;species&quot;, &quot;variety&quot;." type="list" errorStyle="warning">
       <formula1>"domain,kingdom,phylum,classis,order,family,tribe,genus,species,variety"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -23378,21 +23378,21 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A10" pane="topRight" sqref="A10"/>
+      <selection pane="topRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="21" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="3" style="21" width="9"/>
+    <col width="15.7083333333333" customWidth="1" style="21" min="1" max="2"/>
+    <col hidden="1" width="9" customWidth="1" style="21" min="3" max="16384"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1">
+    <row r="1" customFormat="1" s="1">
       <c r="A1" s="20" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='Environment'</t>
+          <t>!!ObjTables type='Date' id='Environment'</t>
         </is>
       </c>
     </row>
@@ -23472,25 +23472,25 @@
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="B8"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="B6"/>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;degC&quot; or blank." errorStyle="warning" errorTitle="Temperature units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;degC&quot; or blank." promptTitle="Temperature units" showErrorMessage="1" showInputMessage="1" sqref="B5" type="list">
+    <dataValidation sqref="B8" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="B6" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="B5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Temperature units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;degC&quot; or blank." promptTitle="Temperature units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;degC&quot; or blank." type="list" errorStyle="warning">
       <formula1>"degC"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Model:0&quot; or blank." errorStyle="warning" errorTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." promptTitle="Model" showErrorMessage="1" showInputMessage="1" sqref="B9" type="list"/>
-    <dataValidation allowBlank="0" error="Value must be a float or blank." errorStyle="warning" errorTitle="Temperature" operator="between" prompt="Enter a float or blank." promptTitle="Temperature" showErrorMessage="1" showInputMessage="1" sqref="B4" type="decimal">
+    <dataValidation sqref="B9" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." type="list" errorStyle="warning"/>
+    <dataValidation sqref="B4" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Temperature" error="Value must be a float or blank." promptTitle="Temperature" prompt="Enter a float or blank." type="decimal" errorStyle="warning" operator="between">
       <formula1>-1E+100</formula1>
       <formula2>1E+100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B3" type="textLength">
+    <dataValidation sqref="B3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="B7" type="textLength">
+    <dataValidation sqref="B7" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="Id" prompt="Enter a string.&#10;&#10;Value must be unique." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="B2"/>
+    <dataValidation sqref="B2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be unique." errorStyle="warning"/>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -23504,21 +23504,21 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="2"/>
+      <pane ySplit="2" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="I3" pane="bottomLeft" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
   <cols>
-    <col customWidth="1" max="9" min="1" style="21" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="10" style="21" width="9"/>
+    <col width="15.7083333333333" customWidth="1" style="21" min="1" max="9"/>
+    <col hidden="1" width="9" customWidth="1" style="21" min="10" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="21">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='Submodel'</t>
+          <t>!!ObjTables type='Date' id='Submodel'</t>
         </is>
       </c>
       <c r="B1" s="15" t="n"/>
@@ -23675,26 +23675,26 @@
   </sheetData>
   <autoFilter ref="A2:I6"/>
   <dataValidations count="9">
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Model:0&quot; or blank." errorStyle="warning" errorTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." promptTitle="Model" showErrorMessage="1" showInputMessage="1" sqref="I3:I6" type="list"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="H3:H6"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="G3:G6" type="textLength">
+    <dataValidation sqref="I3:I6" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." type="list" errorStyle="warning"/>
+    <dataValidation sqref="H3:H6" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="G3:G6" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning" errorTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" showErrorMessage="1" showInputMessage="1" sqref="E3:E6"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning" errorTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" showErrorMessage="1" showInputMessage="1" sqref="F3:F6"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of WC ontology terms &quot;dynamic_flux_balance_analysis&quot;, &quot;ordinary_differential_equations&quot;, &quot;stochastic_simulation_algorithm&quot;." errorStyle="warning" errorTitle="Framework" prompt="Enter a comma-separated list of WC ontology terms &quot;dynamic_flux_balance_analysis&quot;, &quot;ordinary_differential_equations&quot;, &quot;stochastic_simulation_algorithm&quot;." promptTitle="Framework" showErrorMessage="1" showInputMessage="1" sqref="C3:C6" type="list">
+    <dataValidation sqref="E3:E6" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning"/>
+    <dataValidation sqref="F3:F6" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="C3:C6" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Framework" error="Value must be a comma-separated list of WC ontology terms &quot;dynamic_flux_balance_analysis&quot;, &quot;ordinary_differential_equations&quot;, &quot;stochastic_simulation_algorithm&quot;." promptTitle="Framework" prompt="Enter a comma-separated list of WC ontology terms &quot;dynamic_flux_balance_analysis&quot;, &quot;ordinary_differential_equations&quot;, &quot;stochastic_simulation_algorithm&quot;." type="list" errorStyle="warning">
       <formula1>"dynamic_flux_balance_analysis,ordinary_differential_equations,stochastic_simulation_algorithm"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B3:B6" type="textLength">
+    <dataValidation sqref="B3:B6" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="D3:D6"/>
-    <dataValidation allowBlank="0" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="Id" operator="between" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A3:A6" type="textLength">
+    <dataValidation sqref="D3:D6" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="A3:A6" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -23708,21 +23708,21 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="3"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="V4" pane="bottomLeft" sqref="V4"/>
+      <selection pane="bottomLeft" activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col customWidth="1" max="22" min="1" style="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="23" style="1" width="9"/>
+    <col width="15.7083333333333" customWidth="1" style="1" min="1" max="22"/>
+    <col hidden="1" width="9" customWidth="1" style="1" min="23" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="21">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='Compartment'</t>
+          <t>!!ObjTables type='Date' id='Compartment'</t>
         </is>
       </c>
       <c r="B1" s="15" t="n"/>
@@ -24065,58 +24065,58 @@
     <mergeCell ref="M2:P2"/>
   </mergeCells>
   <dataValidations count="20">
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Model:0&quot; or blank." errorStyle="warning" errorTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." promptTitle="Model" showErrorMessage="1" showInputMessage="1" sqref="V4:V5" type="list"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="T4:T5" type="textLength">
+    <dataValidation sqref="V4:V5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." type="list" errorStyle="warning"/>
+    <dataValidation sqref="T4:T5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="U4:U5"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="Q4:Q5"/>
-    <dataValidation allowBlank="0" error="Value must be a float or blank." errorStyle="warning" errorTitle="Mean" operator="between" prompt="Enter a float or blank." promptTitle="Mean" showErrorMessage="1" showInputMessage="1" sqref="N4:N5" type="decimal">
+    <dataValidation sqref="U4:U5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="Q4:Q5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="N4:N5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Mean" error="Value must be a float or blank." promptTitle="Mean" prompt="Enter a float or blank." type="decimal" errorStyle="warning" operator="between">
       <formula1>-1E+100</formula1>
       <formula2>1E+100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Parameters:A&quot; or blank." errorStyle="warning" errorTitle="Initial density" prompt="Select a value from &quot;Parameters:A&quot; or blank." promptTitle="Initial density" showErrorMessage="1" showInputMessage="1" sqref="L4:L5" type="list">
+    <dataValidation sqref="L4:L5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Initial density" error="Value must be a value from &quot;Parameters:A&quot; or blank." promptTitle="Initial density" prompt="Select a value from &quot;Parameters:A&quot; or blank." type="list" errorStyle="warning">
       <formula1>'!Parameters'!$A$3:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning" errorTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" showErrorMessage="1" showInputMessage="1" sqref="R4:R5"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of WC ontology terms &quot;3D_compartment&quot; or blank." errorStyle="warning" errorTitle="Geometry" prompt="Enter a comma-separated list of WC ontology terms &quot;3D_compartment&quot; or blank." promptTitle="Geometry" showErrorMessage="1" showInputMessage="1" sqref="E4:E5" type="list">
+    <dataValidation sqref="R4:R5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning"/>
+    <dataValidation sqref="E4:E5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Geometry" error="Value must be a comma-separated list of WC ontology terms &quot;3D_compartment&quot; or blank." promptTitle="Geometry" prompt="Enter a comma-separated list of WC ontology terms &quot;3D_compartment&quot; or blank." type="list" errorStyle="warning">
       <formula1>"3D_compartment"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;gram&quot; or blank." errorStyle="warning" errorTitle="Mass units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;gram&quot; or blank." promptTitle="Mass units" showErrorMessage="1" showInputMessage="1" sqref="G4:G5" type="list">
+    <dataValidation sqref="G4:G5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Mass units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;gram&quot; or blank." promptTitle="Mass units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;gram&quot; or blank." type="list" errorStyle="warning">
       <formula1>"gram"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;liter&quot; or blank." errorStyle="warning" errorTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;liter&quot; or blank." promptTitle="Units" showErrorMessage="1" showInputMessage="1" sqref="K4:K5" type="list">
+    <dataValidation sqref="K4:K5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;liter&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;liter&quot; or blank." type="list" errorStyle="warning">
       <formula1>"liter"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Compartments:A&quot; or blank." errorStyle="warning" errorTitle="Parent compartment" prompt="Select a value from &quot;Compartments:A&quot; or blank." promptTitle="Parent compartment" showErrorMessage="1" showInputMessage="1" sqref="F4:F5" type="list">
+    <dataValidation sqref="F4:F5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Parent compartment" error="Value must be a value from &quot;Compartments:A&quot; or blank." promptTitle="Parent compartment" prompt="Select a value from &quot;Compartments:A&quot; or blank." type="list" errorStyle="warning">
       <formula1>$A$3:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B4:B5" type="textLength">
+    <dataValidation sqref="B4:B5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of WC ontology terms &quot;fluid_compartment&quot;, &quot;membrane_compartment&quot; or blank." errorStyle="warning" errorTitle="Physical type" prompt="Enter a comma-separated list of WC ontology terms &quot;fluid_compartment&quot;, &quot;membrane_compartment&quot; or blank." promptTitle="Physical type" showErrorMessage="1" showInputMessage="1" sqref="D4:D5" type="list">
+    <dataValidation sqref="D4:D5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Physical type" error="Value must be a comma-separated list of WC ontology terms &quot;fluid_compartment&quot;, &quot;membrane_compartment&quot; or blank." promptTitle="Physical type" prompt="Enter a comma-separated list of WC ontology terms &quot;fluid_compartment&quot;, &quot;membrane_compartment&quot; or blank." type="list" errorStyle="warning">
       <formula1>"fluid_compartment,membrane_compartment"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of WC ontology terms &quot;cellular_compartment&quot;, &quot;extracellular_compartment&quot; or blank." errorStyle="warning" errorTitle="Biological type" prompt="Enter a comma-separated list of WC ontology terms &quot;cellular_compartment&quot;, &quot;extracellular_compartment&quot; or blank." promptTitle="Biological type" showErrorMessage="1" showInputMessage="1" sqref="C4:C5" type="list">
+    <dataValidation sqref="C4:C5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Biological type" error="Value must be a comma-separated list of WC ontology terms &quot;cellular_compartment&quot;, &quot;extracellular_compartment&quot; or blank." promptTitle="Biological type" prompt="Enter a comma-separated list of WC ontology terms &quot;cellular_compartment&quot;, &quot;extracellular_compartment&quot; or blank." type="list" errorStyle="warning">
       <formula1>"cellular_compartment,extracellular_compartment"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a float or blank." errorStyle="warning" errorTitle="Standard deviation" operator="greaterThanOrEqual" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." promptTitle="Standard deviation" showErrorMessage="1" showInputMessage="1" sqref="J4:J5 O4:O5" type="decimal">
+    <dataValidation sqref="J4:J5 O4:O5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Standard deviation" error="Value must be a float or blank." promptTitle="Standard deviation" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." type="decimal" errorStyle="warning" operator="greaterThanOrEqual">
       <formula1>-1E-100</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a float or blank." errorStyle="warning" errorTitle="Mean" operator="greaterThanOrEqual" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." promptTitle="Mean" showErrorMessage="1" showInputMessage="1" sqref="I4:I5" type="decimal">
+    <dataValidation sqref="I4:I5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Mean" error="Value must be a float or blank." promptTitle="Mean" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." type="decimal" errorStyle="warning" operator="greaterThanOrEqual">
       <formula1>-1E-100</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning" errorTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" showErrorMessage="1" showInputMessage="1" sqref="S4:S5"/>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;dimensionless&quot; or blank." errorStyle="warning" errorTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;dimensionless&quot; or blank." promptTitle="Units" showErrorMessage="1" showInputMessage="1" sqref="P4:P5" type="list">
+    <dataValidation sqref="S4:S5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="P4:P5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;dimensionless&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;dimensionless&quot; or blank." type="list" errorStyle="warning">
       <formula1>"dimensionless"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;W ..." errorStyle="warning" errorTitle="Distribution" prompt="Enter a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;Weibull_d ..." promptTitle="Distribution" showErrorMessage="1" showInputMessage="1" sqref="H4:H5 M4:M5"/>
-    <dataValidation allowBlank="0" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="Id" operator="between" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A4:A5" type="textLength">
+    <dataValidation sqref="H4:H5 M4:M5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Distribution" error="Value must be a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;W ..." promptTitle="Distribution" prompt="Enter a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;Weibull_d ..." errorStyle="warning"/>
+    <dataValidation sqref="A4:A5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -24130,21 +24130,21 @@
   <dimension ref="A1:O146"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="3"/>
+      <pane ySplit="3" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="O4" pane="bottomLeft" sqref="O4"/>
+      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="15" min="1" style="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="16" style="1" width="9"/>
+    <col width="15.7083333333333" customWidth="1" style="1" min="1" max="15"/>
+    <col hidden="1" width="9" customWidth="1" style="1" min="16" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="21">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='SpeciesType'</t>
+          <t>!!ObjTables type='Date' id='SpeciesType'</t>
         </is>
       </c>
       <c r="B1" s="15" t="n"/>
@@ -28933,43 +28933,43 @@
     <mergeCell ref="C2:H2"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Model:0&quot; or blank." errorStyle="warning" errorTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." promptTitle="Model" showErrorMessage="1" showInputMessage="1" sqref="O4:O146" type="list"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="M4:M146" type="textLength">
+    <dataValidation sqref="O4:O146" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." type="list" errorStyle="warning"/>
+    <dataValidation sqref="M4:M146" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning" errorTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" showErrorMessage="1" showInputMessage="1" sqref="K4:K146"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning" errorTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" showErrorMessage="1" showInputMessage="1" sqref="L4:L146"/>
-    <dataValidation allowBlank="0" error="An empirical formula (e.g. 'H2O', 'CO2', or 'NaCl')&#10;&#10;Value must be an empirical formula (e.g. &quot;H2O&quot;)." errorStyle="warning" errorTitle="Empirical formula" prompt="An empirical formula (e.g. 'H2O', 'CO2', or 'NaCl')&#10;&#10;Enter an empirical formula (e.g. &quot;H2O&quot;)." promptTitle="Empirical formula" showErrorMessage="1" showInputMessage="1" sqref="F4:F146"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="N4:N146"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="J4:J146"/>
-    <dataValidation allowBlank="0" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="Id" operator="between" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A4:A146" type="textLength">
+    <dataValidation sqref="K4:K146" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning"/>
+    <dataValidation sqref="L4:L146" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="F4:F146" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Empirical formula" error="An empirical formula (e.g. 'H2O', 'CO2', or 'NaCl')&#10;&#10;Value must be an empirical formula (e.g. &quot;H2O&quot;)." promptTitle="Empirical formula" prompt="An empirical formula (e.g. 'H2O', 'CO2', or 'NaCl')&#10;&#10;Enter an empirical formula (e.g. &quot;H2O&quot;)." errorStyle="warning"/>
+    <dataValidation sqref="N4:N146" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="J4:J146" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="A4:A146" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a unique string identifier that (1) starts with a letter, (2) is composed of letters, numbers and underscores, and (3) is less than 64 characters long&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be one of &quot;dna&quot;, &quot;rna&quot;, &quot;protein&quot;, &quot;canonical_dna&quot;, &quot;canonical_rna&quot;, &quot;canonical_protein&quot; or blank." errorStyle="warning" errorTitle="Alphabet" prompt="Select one of &quot;dna&quot;, &quot;rna&quot;, &quot;protein&quot;, &quot;canonical_dna&quot;, &quot;canonical_rna&quot;, &quot;canonical_protein&quot; or blank." promptTitle="Alphabet" showErrorMessage="1" showInputMessage="1" sqref="E4:E146" type="list">
+    <dataValidation sqref="E4:E146" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Alphabet" error="Value must be one of &quot;dna&quot;, &quot;rna&quot;, &quot;protein&quot;, &quot;canonical_dna&quot;, &quot;canonical_rna&quot;, &quot;canonical_protein&quot; or blank." promptTitle="Alphabet" prompt="Select one of &quot;dna&quot;, &quot;rna&quot;, &quot;protein&quot;, &quot;canonical_dna&quot;, &quot;canonical_rna&quot;, &quot;canonical_protein&quot; or blank." type="list" errorStyle="warning">
       <formula1>"dna,rna,protein,canonical_dna,canonical_rna,canonical_protein"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be an integer." errorStyle="warning" errorTitle="Charge" operator="between" prompt="Enter an integer." promptTitle="Charge" showErrorMessage="1" showInputMessage="1" sqref="H4:H146" type="whole">
+    <dataValidation sqref="H4:H146" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Charge" error="Value must be an integer." promptTitle="Charge" prompt="Enter an integer." type="whole" errorStyle="warning" operator="between">
       <formula1>-32768</formula1>
       <formula2>32767</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be one of &quot;smiles&quot;, &quot;bpforms&quot; or blank." errorStyle="warning" errorTitle="Format" prompt="Select one of &quot;smiles&quot;, &quot;bpforms&quot; or blank." promptTitle="Format" showErrorMessage="1" showInputMessage="1" sqref="D4:D146" type="list">
+    <dataValidation sqref="D4:D146" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Format" error="Value must be one of &quot;smiles&quot;, &quot;bpforms&quot; or blank." promptTitle="Format" prompt="Select one of &quot;smiles&quot;, &quot;bpforms&quot; or blank." type="list" errorStyle="warning">
       <formula1>"smiles,bpforms"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Value" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Value" showErrorMessage="1" showInputMessage="1" sqref="C4:C146" type="textLength">
+    <dataValidation sqref="C4:C146" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Value" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Value" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of WC ontology terms &quot;DNA&quot;, &quot;RNA&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot; or blank." errorStyle="warning" errorTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;DNA&quot;, &quot;RNA&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot; or blank." promptTitle="Type" showErrorMessage="1" showInputMessage="1" sqref="I4:I146" type="list">
+    <dataValidation sqref="I4:I146" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;DNA&quot;, &quot;RNA&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;DNA&quot;, &quot;RNA&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot; or blank." type="list" errorStyle="warning">
       <formula1>"DNA,RNA,metabolite,protein,pseudo_species"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a float or blank." errorStyle="warning" errorTitle="Molecular weight" operator="greaterThanOrEqual" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." promptTitle="Molecular weight" showErrorMessage="1" showInputMessage="1" sqref="G4:G146" type="decimal">
+    <dataValidation sqref="G4:G146" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Molecular weight" error="Value must be a float or blank." promptTitle="Molecular weight" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." type="decimal" errorStyle="warning" operator="greaterThanOrEqual">
       <formula1>-1E-100</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B4:B146" type="textLength">
+    <dataValidation sqref="B4:B146" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -28983,21 +28983,21 @@
   <dimension ref="A1:K177"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="2"/>
+      <pane ySplit="2" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="K3" pane="bottomLeft" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="11" min="1" style="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="12" style="1" width="9"/>
+    <col width="15.7083333333333" customWidth="1" style="1" min="1" max="11"/>
+    <col hidden="1" width="9" customWidth="1" style="1" min="12" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="21">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='Species'</t>
+          <t>!!ObjTables type='Date' id='Species'</t>
         </is>
       </c>
       <c r="B1" s="15" t="n"/>
@@ -34145,31 +34145,31 @@
   </sheetData>
   <autoFilter ref="A2:K177"/>
   <dataValidations count="11">
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Model:0&quot; or blank." errorStyle="warning" errorTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." promptTitle="Model" showErrorMessage="1" showInputMessage="1" sqref="K3:K177" type="list"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="F3:F177"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="I3:I177" type="textLength">
+    <dataValidation sqref="K3:K177" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." type="list" errorStyle="warning"/>
+    <dataValidation sqref="F3:F177" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="I3:I177" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot; or blank." errorStyle="warning" errorTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot; or blank." promptTitle="Units" showErrorMessage="1" showInputMessage="1" sqref="E3:E177" type="list">
+    <dataValidation sqref="E3:E177" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot; or blank." type="list" errorStyle="warning">
       <formula1>"molecule"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning" errorTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" showErrorMessage="1" showInputMessage="1" sqref="H3:H177"/>
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Compartments:A&quot;." errorStyle="warning" errorTitle="Compartment" prompt="Select a value from &quot;Compartments:A&quot;." promptTitle="Compartment" showErrorMessage="1" showInputMessage="1" sqref="D3:D177" type="list">
+    <dataValidation sqref="H3:H177" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="D3:D177" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Compartment" error="Value must be a value from &quot;Compartments:A&quot;." promptTitle="Compartment" prompt="Select a value from &quot;Compartments:A&quot;." type="list" errorStyle="warning">
       <formula1>'!Compartments'!$A$3:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning" errorTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" showErrorMessage="1" showInputMessage="1" sqref="G3:G177"/>
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Species types:A&quot;." errorStyle="warning" errorTitle="Species type" prompt="Select a value from &quot;Species types:A&quot;." promptTitle="Species type" showErrorMessage="1" showInputMessage="1" sqref="C3:C177" type="list">
+    <dataValidation sqref="G3:G177" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning"/>
+    <dataValidation sqref="C3:C177" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Species type" error="Value must be a value from &quot;Species types:A&quot;." promptTitle="Species type" prompt="Select a value from &quot;Species types:A&quot;." type="list" errorStyle="warning">
       <formula1>'!Species types'!$A$3:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B3:B177" type="textLength">
+    <dataValidation sqref="B3:B177" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="J3:J177"/>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="Id" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A3:A177" type="textLength">
+    <dataValidation sqref="J3:J177" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="A3:A177" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -34183,21 +34183,21 @@
   <dimension ref="A1:M127"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="2"/>
+      <pane ySplit="2" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="M3" pane="bottomLeft" sqref="M3"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="13" min="1" style="21" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="14" style="21" width="9"/>
+    <col width="15.7083333333333" customWidth="1" style="21" min="1" max="13"/>
+    <col hidden="1" width="9" customWidth="1" style="21" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="21">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='InitialSpeciesConcentration'</t>
+          <t>!!ObjTables type='Date' id='InitialSpeciesConcentration'</t>
         </is>
       </c>
       <c r="B1" s="15" t="n"/>
@@ -38897,35 +38897,35 @@
   </sheetData>
   <autoFilter ref="A2:M127"/>
   <dataValidations count="13">
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Model:0&quot; or blank." errorStyle="warning" errorTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." promptTitle="Model" showErrorMessage="1" showInputMessage="1" sqref="M3:M127" type="list"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;W ..." errorStyle="warning" errorTitle="Distribution" prompt="Enter a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;Weibull_d ..." promptTitle="Distribution" showErrorMessage="1" showInputMessage="1" sqref="D3:D127"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning" errorTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" showErrorMessage="1" showInputMessage="1" sqref="J3:J127"/>
-    <dataValidation allowBlank="0" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning" errorTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" showErrorMessage="1" showInputMessage="1" sqref="I3:I127"/>
-    <dataValidation allowBlank="0" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot;, &quot;molar&quot;, &quot;millimolar&quot;, &quot;micromolar&quot;, &quot;nanomolar&quot;, &quot;picomolar&quot;, &quot;femtomolar&quot;, &quot;attomolar&quot; or blank." errorStyle="warning" errorTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot;, &quot;molar&quot;, &quot;millimolar&quot;, &quot;micromolar&quot;, &quot;nanomolar&quot;, &quot;picomolar&quot;, &quot;femtomolar&quot;, &quot;attomolar&quot; or blank." promptTitle="Units" showErrorMessage="1" showInputMessage="1" sqref="G3:G127" type="list">
+    <dataValidation sqref="M3:M127" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Model" error="Value must be a value from &quot;Model:0&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;Model:0&quot; or blank." type="list" errorStyle="warning"/>
+    <dataValidation sqref="D3:D127" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Distribution" error="Value must be a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;W ..." promptTitle="Distribution" prompt="Enter a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;Weibull_d ..." errorStyle="warning"/>
+    <dataValidation sqref="J3:J127" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="I3:I127" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" errorStyle="warning"/>
+    <dataValidation sqref="G3:G127" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot;, &quot;molar&quot;, &quot;millimolar&quot;, &quot;micromolar&quot;, &quot;nanomolar&quot;, &quot;picomolar&quot;, &quot;femtomolar&quot;, &quot;attomolar&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot;, &quot;molar&quot;, &quot;millimolar&quot;, &quot;micromolar&quot;, &quot;nanomolar&quot;, &quot;picomolar&quot;, &quot;femtomolar&quot;, &quot;attomolar&quot; or blank." type="list" errorStyle="warning">
       <formula1>"molecule,molar,millimolar,micromolar,nanomolar,picomolar,femtomolar,attomolar"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning" errorTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" showErrorMessage="1" showInputMessage="1" sqref="L3:L127"/>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning" errorTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" showErrorMessage="1" showInputMessage="1" sqref="H3:H127"/>
-    <dataValidation allowBlank="0" error="Value must be a float or blank." errorStyle="warning" errorTitle="Standard deviation" operator="greaterThanOrEqual" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." promptTitle="Standard deviation" showErrorMessage="1" showInputMessage="1" sqref="F3:F127" type="decimal">
+    <dataValidation sqref="L3:L127" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="H3:H127" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" errorStyle="warning"/>
+    <dataValidation sqref="F3:F127" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Standard deviation" error="Value must be a float or blank." promptTitle="Standard deviation" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." type="decimal" errorStyle="warning" operator="greaterThanOrEqual">
       <formula1>-1E-100</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a float or blank." errorStyle="warning" errorTitle="Mean" operator="greaterThanOrEqual" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." promptTitle="Mean" showErrorMessage="1" showInputMessage="1" sqref="E3:E127" type="decimal">
+    <dataValidation sqref="E3:E127" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Mean" error="Value must be a float or blank." promptTitle="Mean" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." type="decimal" errorStyle="warning" operator="greaterThanOrEqual">
       <formula1>-1E-100</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="Id" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" showErrorMessage="1" showInputMessage="1" sqref="A3:A127" type="textLength">
+    <dataValidation sqref="A3:A127" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." errorStyle="warning" errorTitle="Comments" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" showErrorMessage="1" showInputMessage="1" sqref="K3:K127" type="textLength">
+    <dataValidation sqref="K3:K127" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a value from &quot;Species:A&quot;." errorStyle="warning" errorTitle="Species" prompt="Select a value from &quot;Species:A&quot;." promptTitle="Species" showErrorMessage="1" showInputMessage="1" sqref="C3:C127" type="list">
+    <dataValidation sqref="C3:C127" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Species" error="Value must be a value from &quot;Species:A&quot;." promptTitle="Species" prompt="Select a value from &quot;Species:A&quot;." type="list" errorStyle="warning">
       <formula1>'!Species'!$A$3:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" showErrorMessage="1" showInputMessage="1" sqref="B3:B127" type="textLength">
+    <dataValidation sqref="B3:B127" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
--- a/tests/fixtures/migrate/fully_instantiated_wc_lang_model.xlsx
+++ b/tests/fixtures/migrate/fully_instantiated_wc_lang_model.xlsx
@@ -1806,7 +1806,7 @@
     <row r="1" s="21">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='Observable'</t>
+          <t>!!ObjTables type='Date' class='Observable'</t>
         </is>
       </c>
       <c r="B1" s="15" t="n"/>
@@ -2017,7 +2017,7 @@
     <row r="1" s="21">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='Function'</t>
+          <t>!!ObjTables type='Date' class='Function'</t>
         </is>
       </c>
       <c r="B1" s="15" t="n"/>
@@ -2250,7 +2250,7 @@
     <row r="1" s="21">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='Reaction'</t>
+          <t>!!ObjTables type='Date' class='Reaction'</t>
         </is>
       </c>
       <c r="B1" s="15" t="n"/>
@@ -9258,7 +9258,7 @@
     <row r="1" s="21">
       <c r="A1" s="8" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='RateLaw'</t>
+          <t>!!ObjTables type='Date' class='RateLaw'</t>
         </is>
       </c>
       <c r="B1" s="8" t="n"/>
@@ -15252,7 +15252,7 @@
     <row r="1" s="21">
       <c r="A1" s="8" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='DfbaObjective'</t>
+          <t>!!ObjTables type='Date' class='DfbaObjective'</t>
         </is>
       </c>
       <c r="B1" s="8" t="n"/>
@@ -15432,7 +15432,7 @@
     <row r="1" s="21">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='DfbaObjReaction'</t>
+          <t>!!ObjTables type='Date' class='DfbaObjReaction'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -15632,7 +15632,7 @@
     <row r="1" s="21">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='DfbaObjSpecies'</t>
+          <t>!!ObjTables type='Date' class='DfbaObjSpecies'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -17035,7 +17035,7 @@
     <row r="1" s="21">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='Parameter'</t>
+          <t>!!ObjTables type='Date' class='Parameter'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -20129,7 +20129,7 @@
     <row r="1" s="21">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='StopCondition'</t>
+          <t>!!ObjTables type='Date' class='StopCondition'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -20292,7 +20292,7 @@
     <row r="1" s="21">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='Observation'</t>
+          <t>!!ObjTables type='Date' class='Observation'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -20973,7 +20973,7 @@
     <row r="1" s="21">
       <c r="A1" s="20" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='Model'</t>
+          <t>!!ObjTables type='Date' class='Model'</t>
         </is>
       </c>
     </row>
@@ -21168,7 +21168,7 @@
     <row r="1" s="21">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='ObservationSet'</t>
+          <t>!!ObjTables type='Date' class='ObservationSet'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -21327,7 +21327,7 @@
     <row r="1" s="21">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='Conclusion'</t>
+          <t>!!ObjTables type='Date' class='Conclusion'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -21601,7 +21601,7 @@
     <row r="1" s="21">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='Reference'</t>
+          <t>!!ObjTables type='Date' class='Reference'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -22934,7 +22934,7 @@
     <row r="1" s="21">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='Author'</t>
+          <t>!!ObjTables type='Date' class='Author'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -23087,7 +23087,7 @@
     <row r="1" s="21">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='Change'</t>
+          <t>!!ObjTables type='Date' class='Change'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -23276,7 +23276,7 @@
     <row r="1" s="21">
       <c r="A1" s="20" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='Taxon'</t>
+          <t>!!ObjTables type='Date' class='Taxon'</t>
         </is>
       </c>
     </row>
@@ -23392,7 +23392,7 @@
     <row r="1" customFormat="1" s="1">
       <c r="A1" s="20" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='Environment'</t>
+          <t>!!ObjTables type='Date' class='Environment'</t>
         </is>
       </c>
     </row>
@@ -23518,7 +23518,7 @@
     <row r="1" s="21">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='Submodel'</t>
+          <t>!!ObjTables type='Date' class='Submodel'</t>
         </is>
       </c>
       <c r="B1" s="15" t="n"/>
@@ -23722,7 +23722,7 @@
     <row r="1" s="21">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='Compartment'</t>
+          <t>!!ObjTables type='Date' class='Compartment'</t>
         </is>
       </c>
       <c r="B1" s="15" t="n"/>
@@ -24144,7 +24144,7 @@
     <row r="1" s="21">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='SpeciesType'</t>
+          <t>!!ObjTables type='Date' class='SpeciesType'</t>
         </is>
       </c>
       <c r="B1" s="15" t="n"/>
@@ -28997,7 +28997,7 @@
     <row r="1" s="21">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='Species'</t>
+          <t>!!ObjTables type='Date' class='Species'</t>
         </is>
       </c>
       <c r="B1" s="15" t="n"/>
@@ -34197,7 +34197,7 @@
     <row r="1" s="21">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='InitialSpeciesConcentration'</t>
+          <t>!!ObjTables type='Date' class='InitialSpeciesConcentration'</t>
         </is>
       </c>
       <c r="B1" s="15" t="n"/>
